--- a/loerrach.xlsx
+++ b/loerrach.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Programmieren\GIT\python\DHBW_Scrape\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="577">
   <si>
     <t>Firmenname</t>
   </si>
@@ -27,23 +22,34 @@
     <t>Adresse</t>
   </si>
   <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>Website mit Infos</t>
+  </si>
+  <si>
     <t>Kontaktperson</t>
   </si>
   <si>
     <t>Kontaktemail</t>
   </si>
   <si>
-    <t>Abrechnungszentrum Emmendingen</t>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>Telefonnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrechnungszentrum Emmendingen </t>
   </si>
   <si>
     <t xml:space="preserve">An der B3 Haus Nr.6 DE-79312 Emmendingen </t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-Weitere Informationen</t>
-  </si>
-  <si>
-    <t>https://www.abrechnungszentrum-emmendingen.de/karriereausbildung/ausbildungstudium.html</t>
+    <t>Weitere Informationen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.abrechnungszentrum-emmendingen.de/karriereausbildung/ausbildungstudium.html </t>
   </si>
   <si>
     <t>Herr Klaus Scharbach</t>
@@ -58,25 +64,1694 @@
     <t>+49 7641 9201-117</t>
   </si>
   <si>
-    <t>abtis GmbH</t>
+    <t xml:space="preserve">abtis GmbH </t>
   </si>
   <si>
     <t xml:space="preserve">Am Untergrün 6 DE-79232 March </t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-Die Praxisphasen finden in Freiburg statt. 
-Weitere Informationen</t>
+    <t>Die Praxisphasen finden in Freiburg statt.Weitere Informationen</t>
   </si>
   <si>
     <t>Frau Viktoria Schlager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKG Software Consulting GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uhlandstr. 12 DE-79423 Heitersheim </t>
+  </si>
+  <si>
+    <t>Bitte online bewerben!Karriere-Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.akgsoftware.de/unternehmen/karriere/duales-studium0/ </t>
+  </si>
+  <si>
+    <t>Frau Jutta Hacker-Günther</t>
+  </si>
+  <si>
+    <t>hacker@akgsoftware.de</t>
+  </si>
+  <si>
+    <t>+49 7634 5612-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allgeier Enterprise Services AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahnenbergplatz 1 DE-79098 Freiburg i.Br. </t>
+  </si>
+  <si>
+    <t>Frau Daniela Märkle</t>
+  </si>
+  <si>
+    <t>daniela-ines.maerkle@allgeier-es.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium-Werke Wutöschingen AG &amp; Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werkstr. 4 DE-79793 Wutöschingen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.aww.de/de/bachelor-of-science-fachrichtung-wirtschaftsinformatik- </t>
+  </si>
+  <si>
+    <t>Frau Birgit Ebi</t>
+  </si>
+  <si>
+    <t>bebi@aww.de</t>
+  </si>
+  <si>
+    <t>+49 7746 81-223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-Kabel Management GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Grien 1 DE-79688 Hausen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.autokabel.com/de/jobs/offene-stellen/hausen.html </t>
+  </si>
+  <si>
+    <t>Frau Katharina Kappeler</t>
+  </si>
+  <si>
+    <t>bewerbung@autokabel.com</t>
+  </si>
+  <si>
+    <t>+49 7622 3903 415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badenIT GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tullastr. 61 DE-79108 Freiburg </t>
+  </si>
+  <si>
+    <t>Bewerbung bitte an Job@badenIT.de.Weitere Informationen finden Sie hier!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.badenit.de/unternehmen/karriere </t>
+  </si>
+  <si>
+    <t>Frau Maike Rosenplänter</t>
+  </si>
+  <si>
+    <t>Job@badenIT.de</t>
+  </si>
+  <si>
+    <t>+49 761 5035-2441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basler Versicherung AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeschengraben 21 CH-4002 Basel </t>
+  </si>
+  <si>
+    <t>Bewerbung bitte online viaHier bewerben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.baloise.com/de/home/karriere/jobs/jobdetail~job=000004QT~lang=de~ </t>
+  </si>
+  <si>
+    <t>Herr Steven Adam</t>
+  </si>
+  <si>
+    <t>steven.adam@baloise.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bechtle GmbH IT-Systemhaus Freiburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leinenweberstraße 1 DE-79108 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Martina Suttner</t>
+  </si>
+  <si>
+    <t>www.bechtle.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BodyTel Europe GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hufelandstr. 14 DE-34537 Bad Wildungen </t>
+  </si>
+  <si>
+    <t>Herr Stefan Schraps</t>
+  </si>
+  <si>
+    <t>stefan.schraps@bodytel.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucher Hydraulics GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industriestraße 1 DE-79771 Klettgau </t>
+  </si>
+  <si>
+    <t>Frau Britta Zölle</t>
+  </si>
+  <si>
+    <t>application@bucherhydraulics.com</t>
+  </si>
+  <si>
+    <t>+49 7742 852-371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG Car-Garantie Versicherungs-AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gündlinger Str. 12 DE-79111 Freiburg </t>
+  </si>
+  <si>
+    <t>Bewerbungen bitte vorzugsweise über dasPortal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.cargarantie.com/unternehmen/karriere/offene-stellen/ </t>
+  </si>
+  <si>
+    <t>Frau Elena Oesterle</t>
+  </si>
+  <si>
+    <t>www.cargarantie.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLC Unternehmensberatung für Logistik GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebelstr. 1 DE-79639 Grenzach-Wyhlen </t>
+  </si>
+  <si>
+    <t>Herr Jörg Lorenz</t>
+  </si>
+  <si>
+    <t>j.lorenz@clcgrenzach.com</t>
+  </si>
+  <si>
+    <t>+49 7624 91410-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coop Genossenschaft Basel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiersteineralle 14 CH-4002 Basel </t>
+  </si>
+  <si>
+    <t>Herr Detlef Brunen</t>
+  </si>
+  <si>
+    <t>detlef.brunen@coop.ch</t>
+  </si>
+  <si>
+    <t>+41 79 459 53 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbi Services SA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rue de la Jeunesse  2 CH-2800 Delémont </t>
+  </si>
+  <si>
+    <t>Weitere Informationen auf unserer Karriereseite!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dbi-services.com/de/jobs-karriere/student-open-infrastructure/ </t>
+  </si>
+  <si>
+    <t>Herr David Hueber</t>
+  </si>
+  <si>
+    <t>dhu@dbi-services.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition 12 GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christoph Merian-Ring 11 CH-4153 Reinach BL </t>
+  </si>
+  <si>
+    <t>Herr Beat Gersbach</t>
+  </si>
+  <si>
+    <t>beat.gersbach@definition12.com</t>
+  </si>
+  <si>
+    <t>+41 61 4112525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DigitalPatrioten AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaiser-Joseph-Str. 266 DE-79098 Freiburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digitalpatrioten.com/mit-uns-arbeiten/duales-studium-software-engineering/ </t>
+  </si>
+  <si>
+    <t>Herr Mario Braun</t>
+  </si>
+  <si>
+    <t>jobs@digitalpatrioten.com</t>
+  </si>
+  <si>
+    <t>+49 761 458 944 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunkermotoren GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allmendstr. 11 DE-79848 Bonndorf </t>
+  </si>
+  <si>
+    <t>Frau Nina Zoller</t>
+  </si>
+  <si>
+    <t>online.bewerbung@dunkermotoren.com</t>
+  </si>
+  <si>
+    <t>+49 7703 930-417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energiedienst AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schönenbergerstr. 10 DE-79618 Rheinfelden </t>
+  </si>
+  <si>
+    <t>Frau Anja Milanovic</t>
+  </si>
+  <si>
+    <t>Anja.milanovic@energiedienst.de</t>
+  </si>
+  <si>
+    <t>+49 7763 81-2552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flex-Air GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorfmatt 7 DE-79585 Steinen </t>
+  </si>
+  <si>
+    <t>Bitte nur online bewerben.</t>
+  </si>
+  <si>
+    <t>Herr Dirk Gros</t>
+  </si>
+  <si>
+    <t>bewerbung@flex-air.com</t>
+  </si>
+  <si>
+    <t>+49 7627 922033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Solare Energiesysteme ISE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidenhofstr. 2 DE-79110 Freiburg </t>
+  </si>
+  <si>
+    <t>Herr Axel Brendle</t>
+  </si>
+  <si>
+    <t>axel.brendle@ise.fraunhofer.de</t>
+  </si>
+  <si>
+    <t>+49 761 4588-5277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Kurzzeitdynamik Ernst-Mach-Institut, EMI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Klingelberg 1 DE-79588 Efringen-Kirchen </t>
+  </si>
+  <si>
+    <t>Mehr Informationen finden Sie auf unsererKarrierewebsite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.emi.fraunhofer.de/de/karriere/ausbildung/dh-studium.html </t>
+  </si>
+  <si>
+    <t>Frau Sarah Gnädinger</t>
+  </si>
+  <si>
+    <t>www.emi.fraunhofer.de</t>
+  </si>
+  <si>
+    <t>+49 761 2714-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Safety Textiles GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höllsteiner Str. 25 DE-79689 Maulburg </t>
+  </si>
+  <si>
+    <t>Frau Andrea Reynolds</t>
+  </si>
+  <si>
+    <t>andrea.reynolds@gst-global.com</t>
+  </si>
+  <si>
+    <t>+49 7622 68846-139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRENKE AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuer Markt 2 DE-76532 Baden-Baden </t>
+  </si>
+  <si>
+    <t>Schwerpunkte (Digitale Transformation sowie Softwareengineering).Weitere Informationen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.grenkeleasing.de/de/karriere/einstieg-in-das-berufsleben.html </t>
+  </si>
+  <si>
+    <t>Frau Miriam Roth</t>
+  </si>
+  <si>
+    <t>miroth@grenke.de</t>
+  </si>
+  <si>
+    <t>+49 7221 5007-170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haufe-Lexware GmbH &amp; Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munzinger Strasse 9 DE-79111 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Stefanie Bührer</t>
+  </si>
+  <si>
+    <t>stefanie.buehrer@haufe-lexware.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hecht Contactlinsen GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorfstr. 2-4 DE-79280 Au </t>
+  </si>
+  <si>
+    <t>Herr Frank Widmer</t>
+  </si>
+  <si>
+    <t>frank.widmer@hecht-contactlinsen.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hectronic GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allmendstr. 15 DE-79848 Bonndorf </t>
+  </si>
+  <si>
+    <t>http://hectronic.de/unternehmen/karriere/studium/duales-studium-dhbw-angewandte-informatik/</t>
+  </si>
+  <si>
+    <t>Herr Alexander Ebi</t>
+  </si>
+  <si>
+    <t>ebi@hectronic.com</t>
+  </si>
+  <si>
+    <t>+49 7703 9388-7388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hella Gutmann Solutions GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Krebsbach 2 DE-79241 Ihringen </t>
+  </si>
+  <si>
+    <t>Frau Laura Gitzinger</t>
+  </si>
+  <si>
+    <t>personal@hella-gutmann.com</t>
+  </si>
+  <si>
+    <t>+49 7668 9900 1861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highQ Computerlösungen GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwimmbadstr. 26 DE-79100 Freiburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.highq.de/de/ausbildung-bei-highq </t>
+  </si>
+  <si>
+    <t>Herr Christian Disch</t>
+  </si>
+  <si>
+    <t>Bewerbung@highQ.de</t>
+  </si>
+  <si>
+    <t>+49 761 7060 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hochrheinNET GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemeindezentrum 1 DE-79790 Küssaberg </t>
+  </si>
+  <si>
+    <t>Weitere Informationen finden Sie hier:www.hochrheinnet.de/karriere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hochrheinnet.de/karriere </t>
+  </si>
+  <si>
+    <t>Herr Francesco Lucia</t>
+  </si>
+  <si>
+    <t>bewerbung@hochrheinnet.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBITECH AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurastraße 2 CH-4142 Münchenstein </t>
+  </si>
+  <si>
+    <t>Herr Reinhold Klingert</t>
+  </si>
+  <si>
+    <t>r.klingert@ibitech.com</t>
+  </si>
+  <si>
+    <t>+41 61 46575-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innobit ag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebgasse 21a CH-4058 Basel </t>
+  </si>
+  <si>
+    <t>Frau Rebecca Dworazik</t>
+  </si>
+  <si>
+    <t>ausbildung@innobit.ch</t>
+  </si>
+  <si>
+    <t>+41 61 695 98 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jet Aviation AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flughafenstraße CH-4030 Basel </t>
+  </si>
+  <si>
+    <t>Frau Sabine Schmidt-Fimpel</t>
+  </si>
+  <si>
+    <t>sabine.schmidt-fimpel@jetaviation.ch</t>
+  </si>
+  <si>
+    <t>+41 58 1584762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaltenbach GmbH + Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blasiring 4 DE-79539 Lörrach </t>
+  </si>
+  <si>
+    <t>Online-Bewerbung hier</t>
+  </si>
+  <si>
+    <t>Frau Sabine Junker</t>
+  </si>
+  <si>
+    <t>s.junker@kaltenbach.de</t>
+  </si>
+  <si>
+    <t>+49 7621 175-255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunale Informationsverarbeitung Baden-Fran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auwaldstr. 11 DE-79110 Freiburg </t>
+  </si>
+  <si>
+    <t>Bitte bevorzugt online bewerben auf der Homepage:www.kivbf.de/studium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.kivbf.de/studium </t>
+  </si>
+  <si>
+    <t>Frau Vanessa Hockenberger</t>
+  </si>
+  <si>
+    <t>ausbildung@kivbf.de</t>
+  </si>
+  <si>
+    <t>+49 7131 958 161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landratsamt Lörrach Personalamt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmstr. 3 DE-79539 Lörrach </t>
+  </si>
+  <si>
+    <t>Frau Maike Steinbach</t>
+  </si>
+  <si>
+    <t>maike.steinbach@loerrach-landkreis.de</t>
+  </si>
+  <si>
+    <t>07621 410 1216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeaseRad GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augustinerplatz 2 DE-79098 Freiburg i.Br. </t>
+  </si>
+  <si>
+    <t>Bitte per E-Mail bewerben und die gewünschten Wahlpflichtfächer nennen.</t>
+  </si>
+  <si>
+    <t>Herr Johannes Nöltner</t>
+  </si>
+  <si>
+    <t>karriere@jobrad.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leitwerk AG Niederlassung Freiburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermann-Mitsch-Straße 36a DE-79108 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Anette Bocek</t>
+  </si>
+  <si>
+    <t>abocek@leitwerk.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebensteiner Kartonagenwerk GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebenstein 15 DE-95703 Plößberg </t>
+  </si>
+  <si>
+    <t>Herr Wolfgang Forster</t>
+  </si>
+  <si>
+    <t>w.forster@liebensteiner.de</t>
+  </si>
+  <si>
+    <t>+49 9631 605-105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-tec mathis technik gmbh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otto-Hahn-Str. 6 DE-79395 Neuenburg </t>
+  </si>
+  <si>
+    <t>Weitere Informationen finden Siehier.</t>
+  </si>
+  <si>
+    <t>Frau Daniela Reiner</t>
+  </si>
+  <si>
+    <t>personal@m-tec.com</t>
+  </si>
+  <si>
+    <t>+49 7631 709-130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnolia International AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oslo-Strasse 2 CH-4142 Münchenstein </t>
+  </si>
+  <si>
+    <t>Herr Christian Hartel</t>
+  </si>
+  <si>
+    <t>jobs@magnolia-cms.com</t>
+  </si>
+  <si>
+    <t>+41 61 228 90 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MediaNet GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lörracher Straße 5a DE-79115 Freiburg </t>
+  </si>
+  <si>
+    <t>Herr Daniel Beckert</t>
+  </si>
+  <si>
+    <t>personal@medianet-freiburg.de</t>
+  </si>
+  <si>
+    <t>0761 496 -1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteoblue AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarastrasse 2 CH-4058 Basel </t>
+  </si>
+  <si>
+    <t>Hier finden Sie weitere Informationen:Meteoblue Karriere</t>
+  </si>
+  <si>
+    <t>Herr Karl Gutbrod</t>
+  </si>
+  <si>
+    <t>info@meteoblue.com</t>
+  </si>
+  <si>
+    <t>+41 61 5353301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIMOT GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berner Weg 11 DE-79539 Lörrach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.mimot.de/karriere/ausbildung/&gt;Weitere Informationen&lt;/a&gt;&lt;/p&gt;&lt;/td&gt;&lt;td class= </t>
+  </si>
+  <si>
+    <t>Herr Dieter Sander</t>
+  </si>
+  <si>
+    <t>dieter.sander@mimot.de</t>
+  </si>
+  <si>
+    <t>+49 7621 9578-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MothersonSumi INfotekk and Design GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Germanenring 3 DE-63486 Bruchköbel </t>
+  </si>
+  <si>
+    <t>Einsatzort der Studierenden: Schloßmattenstraße 7a, 79268 Bötzingen</t>
+  </si>
+  <si>
+    <t>Frau Elina Schulz</t>
+  </si>
+  <si>
+    <t>elina.schulz@motherson.com</t>
+  </si>
+  <si>
+    <t>+49 6051 91524-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimius GmbH Agentur für Kommunikation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freiburger Str. 21 DE-79189 Bad Krozingen </t>
+  </si>
+  <si>
+    <t>Frau Domenica Uhlbach</t>
+  </si>
+  <si>
+    <t>nicki@nimius.net</t>
+  </si>
+  <si>
+    <t>+49 7633 93990-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXID eSales AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertoldstrasse 48 DE-79098 Freiburg </t>
+  </si>
+  <si>
+    <t>Bewerbung bevorzugt online oder per E-Mail an jobs@oxid-esales.com. Bitte achten Sie darauf, dass wir sehr gute Deutschkenntnisse voraussetzen.</t>
+  </si>
+  <si>
+    <t>Frau Janina Jahn</t>
+  </si>
+  <si>
+    <t>jobs@oxid-esales.com</t>
+  </si>
+  <si>
+    <t>+49 761 36889-267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penta-Electric AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammerstraße 18 CH-4410 Liestal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.penta-electric.ch/?folder=plugins/unternehmen/partner </t>
+  </si>
+  <si>
+    <t>Herr Martin Ücker</t>
+  </si>
+  <si>
+    <t>m.uecker@penta-electric.ch</t>
+  </si>
+  <si>
+    <t>+41 61 4163636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharmatronic AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hohenrainstr. 10 CH-4133 Pratteln </t>
+  </si>
+  <si>
+    <t>Frau Julia Braccini</t>
+  </si>
+  <si>
+    <t>j.braccini@pharmatronic.ch</t>
+  </si>
+  <si>
+    <t>+41 61 8269726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppedv ag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marktlerstr. 15b DE-84489 Burghausen </t>
+  </si>
+  <si>
+    <t>Online bewerben aufppedv.de/karriereoder per Mail</t>
+  </si>
+  <si>
+    <t>Frau Sina Melchin</t>
+  </si>
+  <si>
+    <t>karriere@ppedv.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PricewaterhouseCoopers AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Jakobs-Strasse 25 CH-4002 Basel </t>
+  </si>
+  <si>
+    <t>Bitte nur online bewerben: http://www.pwc.ch/de/karriere-bei-pwc/offene-stellen.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pwc.ch/de/karriere-bei-pwc/offene-stellen.html </t>
+  </si>
+  <si>
+    <t>Frau Valerie Malcherek</t>
+  </si>
+  <si>
+    <t>valerie.malcherek@ch.pwc.com</t>
+  </si>
+  <si>
+    <t>+41 58 792 51 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservix GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humboldtstraße 2 DE-79098 Freiburg </t>
+  </si>
+  <si>
+    <t>Bewerbungen bitte online hier:produkte.reservix.de/karriere/</t>
+  </si>
+  <si>
+    <t>Frau Maren Billian</t>
+  </si>
+  <si>
+    <t>www.reservix.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETEL Neuhausen AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rundbuckstrasse 6 CH-8212 Neuhausen </t>
+  </si>
+  <si>
+    <t>Bitte online Bewerbung zusenden:www.retel.ch/unternehmen/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.retel.ch/unternehmen/jobs </t>
+  </si>
+  <si>
+    <t>Herr Timo Gramann</t>
+  </si>
+  <si>
+    <t>bewerbung@retel.ch</t>
+  </si>
+  <si>
+    <t>+41 52 6724252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodia Acetow GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engesserstraße 8 DE-79108 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Karen Holger</t>
+  </si>
+  <si>
+    <t>freiburg-bewerbung@rhodia-acetow.com</t>
+  </si>
+  <si>
+    <t>+49 761 511-3630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanawork GmbH Dr. Ursula Kramer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmy-Noether-Str. 2 DE-79110 Freiburg </t>
+  </si>
+  <si>
+    <t>Bewerbungsunterlagen in einer PDF Datei per E-Mail an harald.guess@sanawork.de, Weitere Informationen finden Siehier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sanawork.de/arbeiten-bei-sanawork.html?SiteID=wirtschaftsinformatik </t>
+  </si>
+  <si>
+    <t>Herr Harald Güss</t>
+  </si>
+  <si>
+    <t>harald.guess@sanawork.de</t>
+  </si>
+  <si>
+    <t>+49 761 151548-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheer GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismarckallee 17 DE-79098 Freiburg </t>
+  </si>
+  <si>
+    <t>Die Scheer GmbH bildet am Standort Freiburg aus. Bewerbung bitte über das Portal:scheer-group.com.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.scheer-group.com/unternehmen/karriere/stellenangebote/ </t>
+  </si>
+  <si>
+    <t>Frau Anna Hoffmann</t>
+  </si>
+  <si>
+    <t>www.scheer-group.com/karriere/stellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmolck GmbH &amp; Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Elzdamm 2 DE-79312 Emmendingen </t>
+  </si>
+  <si>
+    <t>Frau Regina Zimmermann</t>
+  </si>
+  <si>
+    <t>bewerbung@schmolck.de</t>
+  </si>
+  <si>
+    <t>07641/4602-227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackforce GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poststrasse 35 DE-79423 Heitersheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.stackforce.de/de/career/job/dhbw-student </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>bewerbung@stackforce.de</t>
+  </si>
+  <si>
+    <t>07634/69960 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Computer- und Datentechnik GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Entenbad 20 DE-79540 Lörrach </t>
+  </si>
+  <si>
+    <t>Frau Mira Geiger</t>
+  </si>
+  <si>
+    <t>mgeiger@stepnet.de</t>
+  </si>
+  <si>
+    <t>+49 7621 4057-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stiegeler IT-Systemhaus GmbH &amp; Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradiesstraße 18 DE-79677 Schönau </t>
+  </si>
+  <si>
+    <t>Herr Alexander Knobel</t>
+  </si>
+  <si>
+    <t>a.knobel@stiegeler.com</t>
+  </si>
+  <si>
+    <t>+49 7673 88899-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streck Transportgesellschaft mbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blankreutestr. 6 DE-79108 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Cornelia Weismann</t>
+  </si>
+  <si>
+    <t>cornelia.weismann@streck.de</t>
+  </si>
+  <si>
+    <t>+49 761 1305-246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syngenta Crop Protection AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwarzwaldallee 215 CH-4002 Basel </t>
+  </si>
+  <si>
+    <t>Bitte bewerben Sie sich direkthier.</t>
+  </si>
+  <si>
+    <t>Frau Jessica Schaerer</t>
+  </si>
+  <si>
+    <t>www.syngentajob.ch</t>
+  </si>
+  <si>
+    <t>+41 61 323 54 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TecAlliance GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreuzstraße 10 DE-97990 Weikersheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tecalliance.net/de/karriere/ausbildung-studium/ </t>
+  </si>
+  <si>
+    <t>Frau Kerstin Langohr</t>
+  </si>
+  <si>
+    <t>Kerstin.Langohr@tecalliance.net</t>
+  </si>
+  <si>
+    <t>+49 7934 99299-525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testo industrial services GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewerbestr. 3 DE-79199 Kirchzarten </t>
+  </si>
+  <si>
+    <t>Frau Kathrin Riesterer</t>
+  </si>
+  <si>
+    <t>kriesterer@testotis.de</t>
+  </si>
+  <si>
+    <t>+49 7661 90901 8074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trend SWM EDV-Beratung GmbH &amp; Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gundelfinger Straße 11 DE-79108 Freiburg </t>
+  </si>
+  <si>
+    <t>http://www.trendswm.de/unternehmen/ausbildung/</t>
+  </si>
+  <si>
+    <t>Herr Christian Gut</t>
+  </si>
+  <si>
+    <t>ausbildung@trendswm.de</t>
+  </si>
+  <si>
+    <t>+49 761 88880-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trivadis AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elisabethenanlage 9 CH-CH-4051 Basel </t>
+  </si>
+  <si>
+    <t>Herr Caspar v. Stülpnagel</t>
+  </si>
+  <si>
+    <t>caspar.vonstuelpnagel@trivadis.com</t>
+  </si>
+  <si>
+    <t>+41-58-459 50 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitäts-Herzzentrum Freiburg-Bad Krozing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Südring 15 DE-79189 Bad Krozingen </t>
+  </si>
+  <si>
+    <t>Bitte bewerben Sie sich online über dasBewerberportal.Weitere Informationen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.herzzentrum.de/karriere/ausbildung.html </t>
+  </si>
+  <si>
+    <t>Herr Peter Doelfs</t>
+  </si>
+  <si>
+    <t>www.herzzentrum.de</t>
+  </si>
+  <si>
+    <t>+49 7633 402-7250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitra HR Services GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles-Eames-Str. 2 DE-79576 Weil am Rhein </t>
+  </si>
+  <si>
+    <t>Frau Anne Greiner</t>
+  </si>
+  <si>
+    <t>anne.greiner@vitra.com</t>
+  </si>
+  <si>
+    <t>+49 7621 702 3083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Würth Elektronik GmbH &amp; Co. KG Standort Schopfheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An der Wiese 1 DE-79650 Schopfheim </t>
+  </si>
+  <si>
+    <t>Hier finden Sie weitere Informationen!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.we-online.de/web/de/karriere/schueler_segeln/studium/Studiengaenge.php </t>
+  </si>
+  <si>
+    <t>Herr Marco Meklenburg</t>
+  </si>
+  <si>
+    <t>marco.meklenburg@we-online.de</t>
+  </si>
+  <si>
+    <t>+49 7622 397-153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-LASER Optoelektronik GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merzhauser Str. 134 DE-79100 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Almut Zimmermann</t>
+  </si>
+  <si>
+    <t>personal@z-laser.de </t>
+  </si>
+  <si>
+    <t>+49 761 2964-444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Raymond GmbH &amp; Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teichstr. 57 DE-79539 Lörrach </t>
+  </si>
+  <si>
+    <t>Frau Franziska Tauschinger</t>
+  </si>
+  <si>
+    <t>ausbildung@de.araymond.com</t>
+  </si>
+  <si>
+    <t>+49 7621 174-2525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coresystems AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorfstraße 69 CH-5210 Windisch </t>
+  </si>
+  <si>
+    <t>Bitte nur Online-Bewerbungen über die Homepage:www.coresystems.net/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.coresystems.net/jobs </t>
+  </si>
+  <si>
+    <t>Frau Hanna Bergner</t>
+  </si>
+  <si>
+    <t>www.coresystems.net</t>
+  </si>
+  <si>
+    <t>+41 56 500 22 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraunhofer-Institut für Physikalische Messtechnik IPM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidenhofstr. 8 DE-79110 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Anneliese Macalister-Smith</t>
+  </si>
+  <si>
+    <t>anneliese.macalister-smith@ipm.fraunhofer.de</t>
+  </si>
+  <si>
+    <t>+49 761 8857-112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actemium Schweiz AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wien-Strasse 2 CH-4002 Basel </t>
+  </si>
+  <si>
+    <t>Bewerbung bitte online viahttp://www.actemium.ch/de/home/karriere/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.actemium.ch/de/home/karriere/ </t>
+  </si>
+  <si>
+    <t>Frau Tiziana Tummarello</t>
+  </si>
+  <si>
+    <t>tiziana.tummarello@actemium.ch</t>
+  </si>
+  <si>
+    <t>+41 61 316 63 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axxelia GmbH &amp; Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herrenstraße 45 DE-79098 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Lucia Menner</t>
+  </si>
+  <si>
+    <t>lucia.menner@axxelia.com</t>
+  </si>
+  <si>
+    <t>+49 761 205514-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befine Solutions AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werthmannstr. 15 DE-79098 Freiburg </t>
+  </si>
+  <si>
+    <t>Herr Tobias Treffeisen</t>
+  </si>
+  <si>
+    <t>info@befine-solutions.com</t>
+  </si>
+  <si>
+    <t>+49 761 38913-120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canoo  Engineering AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirschgartenstrasse 5 CH-4051 Basel </t>
+  </si>
+  <si>
+    <t>Frau Alicia Martinelli</t>
+  </si>
+  <si>
+    <t>hr@canoo.com</t>
+  </si>
+  <si>
+    <t>+41 61 228 94 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coresystems Deutschland GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schloßbergring 15 DE-79098 Freiburg im Breisgau </t>
+  </si>
+  <si>
+    <t>www.coresuite.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endress + Hauser InfoServe GmbH + Co. KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colmarer Str. 6 DE-79576 Weil am Rhein </t>
+  </si>
+  <si>
+    <t>Herr Martin Döring</t>
+  </si>
+  <si>
+    <t>Ausbildung@infoserve.endress.com</t>
+  </si>
+  <si>
+    <t>+49 7621 975-835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eschbach GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaffhauser Str. 97 DE-79713 Bad Säckingen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.eschbachit.com/de/ueber-eschbach/jobs-karriere/ </t>
+  </si>
+  <si>
+    <t>Frau Rosi Huber</t>
+  </si>
+  <si>
+    <t>rosi.huber@eschbachit.com</t>
+  </si>
+  <si>
+    <t>+49 7761 559 59-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europa-Park Freizeit- und Familienpark Mack K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europa-Park-Str. 2 DE-77977 Rust </t>
+  </si>
+  <si>
+    <t>Frau Birgit Bachimont</t>
+  </si>
+  <si>
+    <t>birgit.bachimont@europapark.de</t>
+  </si>
+  <si>
+    <t>+49 7822 77-15420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREICON AG Freiburger  IT-Consulting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riegeler Straße 12 DE-79111 Freiburg </t>
+  </si>
+  <si>
+    <t>www.freicon.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreiNet Gesellschaft für Informationsdienste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lörracherstr. 5a DE-79115 Freiburg </t>
+  </si>
+  <si>
+    <t>Herr Thorsten Maginot</t>
+  </si>
+  <si>
+    <t>personal@freinet.de</t>
+  </si>
+  <si>
+    <t>+49 761 496-1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEIGER TEXTIL GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trottäcker 69 DE-79713 Bad Säckingen </t>
+  </si>
+  <si>
+    <t>Ansprechpartner Herr Lukas Latuska, Tel. +49 152 22531311,Karriereseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geiger-textil.de/karriere/ </t>
+  </si>
+  <si>
+    <t>Herr Jochen Geiger</t>
+  </si>
+  <si>
+    <t>bewerbung@geiger-textil.de</t>
+  </si>
+  <si>
+    <t>+49 7761 55900-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glatt GmbH Process Technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werner-Glatt-Str. 1 DE-79589 Binzen </t>
+  </si>
+  <si>
+    <t>Frau Tanja Roßkopf</t>
+  </si>
+  <si>
+    <t>jobs@glatt.com</t>
+  </si>
+  <si>
+    <t>+49 7621 664-301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandcentrix GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holzmarkt 1 DE-50676 Köln </t>
+  </si>
+  <si>
+    <t>Frau Elena Hajou</t>
+  </si>
+  <si>
+    <t>www.grandcentrix.net/jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hans Adler OHG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Lindenbuck 3 DE-79848 Bonndorf </t>
+  </si>
+  <si>
+    <t>Herr Daniel Beck</t>
+  </si>
+  <si>
+    <t>daniel.beck@adlerschwarzwald.de</t>
+  </si>
+  <si>
+    <t>+49 7703 832-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMMEL AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lise-Meitner-Straße 2 DE-79211 Denzlingen </t>
+  </si>
+  <si>
+    <t>Herr Tobias Rieser</t>
+  </si>
+  <si>
+    <t>personal@hummel.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iRIX Software Engineering AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dornacher Str. 192 / Bau 5 CH-4053 Basel </t>
+  </si>
+  <si>
+    <t>Bitte keine Bewerbungen in Papierform.</t>
+  </si>
+  <si>
+    <t>Herr Boris Vorberg</t>
+  </si>
+  <si>
+    <t>jobs@irix.ch</t>
+  </si>
+  <si>
+    <t>+41 61 3679332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARL STORZ GmbH &amp; Co. KG Endoskop Produktions GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittelstr. 8 DE-78532 Tuttlingen </t>
+  </si>
+  <si>
+    <t>Herr Christian Braun</t>
+  </si>
+  <si>
+    <t>christian.braun@karlstorz.com</t>
+  </si>
+  <si>
+    <t>+49 7461 708-548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KumaVision AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klettgaustraße 21 DE-79761 Waldshut-Tiengen </t>
+  </si>
+  <si>
+    <t>Bewerbungen an:Karriere KUMAVISION</t>
+  </si>
+  <si>
+    <t>Frau Svenja Dorn</t>
+  </si>
+  <si>
+    <t>svenja.dorn@kumavision.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landratsamt Breisgau-Hochschwarzwald </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadtstraße 2 DE-79104 Freiburg i.Br. </t>
+  </si>
+  <si>
+    <t>Frau Lara-Noreen Roll</t>
+  </si>
+  <si>
+    <t>ausbildung@lkbh.de</t>
+  </si>
+  <si>
+    <t>+49 761 21871312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manor AG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebgasse 34 CH-4005 Basel </t>
+  </si>
+  <si>
+    <t>Frau Renate Wunderlin</t>
+  </si>
+  <si>
+    <t>renate.wunderlin@manor.ch</t>
+  </si>
+  <si>
+    <t>+41 61 686-1177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medien-Akademie Augsburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curt-Frenzel-Straße 2 DE-86167 Augsburg </t>
+  </si>
+  <si>
+    <t>Frau Birgit Raila</t>
+  </si>
+  <si>
+    <t>birgit.raila@presse-druck.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSC Technologies Systems GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munzinger Str. 3 DE-79111 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Eva Gumbert</t>
+  </si>
+  <si>
+    <t>Eva.Gumbert@msc-technologies.eu</t>
+  </si>
+  <si>
+    <t>+49 761 8819-620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northrop Grumman LITEF GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lörracher Str. 18 DE-79115 Freiburg </t>
+  </si>
+  <si>
+    <t>Herr Wilfried Saur</t>
+  </si>
+  <si>
+    <t>personal@ng-litef.de</t>
+  </si>
+  <si>
+    <t>+49 761 4901-260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printcom GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konrad-Adenauer-Straße 15 DE-79540 Lörrach </t>
+  </si>
+  <si>
+    <t>Herr Felix Leimbach</t>
+  </si>
+  <si>
+    <t>f.leimbach@printcom-gmbh.de</t>
+  </si>
+  <si>
+    <t>+49 7621 94083-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regioDATA GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiesenweg 4 DE-79539 Lörrach </t>
+  </si>
+  <si>
+    <t>Ausbildungsstandort ist Freiburg!</t>
+  </si>
+  <si>
+    <t>Herr Jörg Haerdle</t>
+  </si>
+  <si>
+    <t>joerg.haerdle@regiodata-gmbh.de</t>
+  </si>
+  <si>
+    <t>+49 7621 91943-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIB Cosinus GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gundelfinger Str. 2 DE-79108 Freiburg </t>
+  </si>
+  <si>
+    <t>Frau Cornelia Scheller-Elgharbi</t>
+  </si>
+  <si>
+    <t>Cornelia.Scheller@rib-cosinus.com</t>
+  </si>
+  <si>
+    <t>+49 761 51004-826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SensoPart Industriesensorik GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nägelseestr. 16 DE-79288 Gottenheim </t>
+  </si>
+  <si>
+    <t>Weitere Informationen finden Sie hier:www.sensopart.com/de/ueber-uns/karriere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sensopart.com/de/ueber-uns/karriere </t>
+  </si>
+  <si>
+    <t>Frau Sabine Weyhmann</t>
+  </si>
+  <si>
+    <t>jobs@sensopart.de</t>
+  </si>
+  <si>
+    <t>07665 947669-827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spar mit! Reisen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mattenstr. 24 CH-4058 Basel </t>
+  </si>
+  <si>
+    <t>Frau Jessica Teske</t>
+  </si>
+  <si>
+    <t>j.teske@spar-mit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sto SE &amp; Co. KGaA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehrenbachstr. 1 DE-79780 Stühlingen </t>
+  </si>
+  <si>
+    <t>Frau Julia Dombek</t>
+  </si>
+  <si>
+    <t>ausbildung.de@sto.com</t>
+  </si>
+  <si>
+    <t>+49 7744 57-1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitätsklinikum Freiburg Klinikrechenzentrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agnesenstr. 6 - 8 DE-79106 Freiburg </t>
+  </si>
+  <si>
+    <t>Hier finden Sie weitere Informationen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uniklinik-freiburg.de/karriere/studium.html </t>
+  </si>
+  <si>
+    <t>Herr Michael Kraus</t>
+  </si>
+  <si>
+    <t>michael.kraus@uniklinik-freiburg.de</t>
+  </si>
+  <si>
+    <t>+49 761 270-22060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universitätsspital Basel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spitalstr. 26 CH-4031 Basel </t>
+  </si>
+  <si>
+    <t>Herr Marco Buchauer</t>
+  </si>
+  <si>
+    <t>mbuchauer@uhbs.ch</t>
+  </si>
+  <si>
+    <t>+41 61 265-3841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work in Progress Textilhandels GmbH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hegenheimer Str. 16 DE-79576 Weil am Rhein </t>
+  </si>
+  <si>
+    <t>a href="https://www.carhartt-wip.com/de/service/jobs"&gt;Weitere Informationen</t>
+  </si>
+  <si>
+    <t>Herr Christoph Glück</t>
+  </si>
+  <si>
+    <t>cglueck@carhartt-wip.com</t>
+  </si>
+  <si>
+    <t>+49 7621 966 743</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,34 +1791,21 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -185,7 +1847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,27 +1879,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,24 +1913,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,82 +2088,2421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="40.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="0.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
-    <col min="9" max="21" width="40.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="19" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="50" customHeight="1">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50" customHeight="1">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="50" customHeight="1">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="50" customHeight="1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="50" customHeight="1">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50" customHeight="1">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="50" customHeight="1">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50" customHeight="1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50" customHeight="1">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50" customHeight="1">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="50" customHeight="1">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="50" customHeight="1">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="50" customHeight="1">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50" customHeight="1">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="50" customHeight="1">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="50" customHeight="1">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="50" customHeight="1">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="50" customHeight="1">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="50" customHeight="1">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="50" customHeight="1">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="50" customHeight="1">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="50" customHeight="1">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="50" customHeight="1">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="50" customHeight="1">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="50" customHeight="1">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="50" customHeight="1">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="50" customHeight="1">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="50" customHeight="1">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="50" customHeight="1">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="50" customHeight="1">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="50" customHeight="1">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="50" customHeight="1">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="50" customHeight="1">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="50" customHeight="1">
+      <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="50" customHeight="1">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="50" customHeight="1">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="50" customHeight="1">
+      <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="50" customHeight="1">
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="50" customHeight="1">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="50" customHeight="1">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="50" customHeight="1">
+      <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="50" customHeight="1">
+      <c r="A43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="50" customHeight="1">
+      <c r="A44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" t="s">
+        <v>240</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="50" customHeight="1">
+      <c r="A45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="50" customHeight="1">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" t="s">
+        <v>249</v>
+      </c>
+      <c r="C46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="50" customHeight="1">
+      <c r="A47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="50" customHeight="1">
+      <c r="A48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="50" customHeight="1">
+      <c r="A49" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" t="s">
+        <v>269</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="50" customHeight="1">
+      <c r="A50" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" t="s">
+        <v>273</v>
+      </c>
+      <c r="F50" t="s">
+        <v>274</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="50" customHeight="1">
+      <c r="A51" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="50" customHeight="1">
+      <c r="A52" t="s">
+        <v>281</v>
+      </c>
+      <c r="B52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="50" customHeight="1">
+      <c r="A53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" t="s">
+        <v>290</v>
+      </c>
+      <c r="E53" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="50" customHeight="1">
+      <c r="A54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B54" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E54" t="s">
+        <v>297</v>
+      </c>
+      <c r="F54" t="s">
+        <v>298</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="50" customHeight="1">
+      <c r="A55" t="s">
+        <v>300</v>
+      </c>
+      <c r="B55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E55" t="s">
+        <v>302</v>
+      </c>
+      <c r="F55" t="s">
+        <v>303</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="50" customHeight="1">
+      <c r="A56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E56" t="s">
+        <v>309</v>
+      </c>
+      <c r="F56" t="s">
+        <v>310</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="50" customHeight="1">
+      <c r="A57" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="50" customHeight="1">
+      <c r="A58" t="s">
+        <v>318</v>
+      </c>
+      <c r="B58" t="s">
+        <v>319</v>
+      </c>
+      <c r="E58" t="s">
+        <v>320</v>
+      </c>
+      <c r="F58" t="s">
+        <v>321</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="50" customHeight="1">
+      <c r="A59" t="s">
+        <v>323</v>
+      </c>
+      <c r="B59" t="s">
+        <v>324</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E59" t="s">
+        <v>326</v>
+      </c>
+      <c r="F59" t="s">
+        <v>327</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="50" customHeight="1">
+      <c r="A60" t="s">
+        <v>329</v>
+      </c>
+      <c r="B60" t="s">
+        <v>330</v>
+      </c>
+      <c r="E60" t="s">
+        <v>331</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="50" customHeight="1">
+      <c r="A61" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" t="s">
+        <v>335</v>
+      </c>
+      <c r="E61" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" t="s">
+        <v>337</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="50" customHeight="1">
+      <c r="A62" t="s">
+        <v>339</v>
+      </c>
+      <c r="B62" t="s">
+        <v>340</v>
+      </c>
+      <c r="E62" t="s">
+        <v>341</v>
+      </c>
+      <c r="F62" t="s">
+        <v>342</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="50" customHeight="1">
+      <c r="A63" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63" t="s">
+        <v>345</v>
+      </c>
+      <c r="C63" t="s">
+        <v>346</v>
+      </c>
+      <c r="E63" t="s">
+        <v>347</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="50" customHeight="1">
+      <c r="A64" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E64" t="s">
+        <v>353</v>
+      </c>
+      <c r="F64" t="s">
+        <v>354</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="50" customHeight="1">
+      <c r="A65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F65" t="s">
+        <v>359</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="50" customHeight="1">
+      <c r="A66" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" t="s">
+        <v>362</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E66" t="s">
+        <v>364</v>
+      </c>
+      <c r="F66" t="s">
+        <v>365</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="50" customHeight="1">
+      <c r="A67" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" t="s">
+        <v>368</v>
+      </c>
+      <c r="E67" t="s">
+        <v>369</v>
+      </c>
+      <c r="F67" t="s">
+        <v>370</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="50" customHeight="1">
+      <c r="A68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" t="s">
+        <v>373</v>
+      </c>
+      <c r="C68" t="s">
+        <v>374</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E68" t="s">
+        <v>376</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="50" customHeight="1">
+      <c r="A69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" t="s">
+        <v>380</v>
+      </c>
+      <c r="E69" t="s">
+        <v>381</v>
+      </c>
+      <c r="F69" t="s">
+        <v>382</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="50" customHeight="1">
+      <c r="A70" t="s">
+        <v>384</v>
+      </c>
+      <c r="B70" t="s">
+        <v>385</v>
+      </c>
+      <c r="C70" t="s">
+        <v>386</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E70" t="s">
+        <v>388</v>
+      </c>
+      <c r="F70" t="s">
+        <v>389</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="50" customHeight="1">
+      <c r="A71" t="s">
+        <v>391</v>
+      </c>
+      <c r="B71" t="s">
+        <v>392</v>
+      </c>
+      <c r="E71" t="s">
+        <v>393</v>
+      </c>
+      <c r="F71" t="s">
+        <v>394</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="50" customHeight="1">
+      <c r="A72" t="s">
+        <v>396</v>
+      </c>
+      <c r="B72" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" t="s">
+        <v>398</v>
+      </c>
+      <c r="F72" t="s">
+        <v>399</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="50" customHeight="1">
+      <c r="A73" t="s">
+        <v>401</v>
+      </c>
+      <c r="B73" t="s">
+        <v>402</v>
+      </c>
+      <c r="C73" t="s">
+        <v>403</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E73" t="s">
+        <v>405</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="50" customHeight="1">
+      <c r="A74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B74" t="s">
+        <v>409</v>
+      </c>
+      <c r="E74" t="s">
+        <v>410</v>
+      </c>
+      <c r="F74" t="s">
+        <v>411</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="50" customHeight="1">
+      <c r="A75" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E75" t="s">
+        <v>417</v>
+      </c>
+      <c r="F75" t="s">
+        <v>418</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="50" customHeight="1">
+      <c r="A76" t="s">
+        <v>420</v>
+      </c>
+      <c r="B76" t="s">
+        <v>421</v>
+      </c>
+      <c r="E76" t="s">
+        <v>422</v>
+      </c>
+      <c r="F76" t="s">
+        <v>423</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="50" customHeight="1">
+      <c r="A77" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" t="s">
+        <v>426</v>
+      </c>
+      <c r="E77" t="s">
+        <v>427</v>
+      </c>
+      <c r="F77" t="s">
+        <v>428</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="50" customHeight="1">
+      <c r="A78" t="s">
+        <v>430</v>
+      </c>
+      <c r="B78" t="s">
+        <v>431</v>
+      </c>
+      <c r="E78" t="s">
+        <v>432</v>
+      </c>
+      <c r="F78" t="s">
+        <v>433</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="50" customHeight="1">
+      <c r="A79" t="s">
+        <v>435</v>
+      </c>
+      <c r="B79" t="s">
+        <v>436</v>
+      </c>
+      <c r="C79" t="s">
+        <v>403</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E79" t="s">
+        <v>326</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="50" customHeight="1">
+      <c r="A80" t="s">
+        <v>438</v>
+      </c>
+      <c r="B80" t="s">
+        <v>439</v>
+      </c>
+      <c r="E80" t="s">
+        <v>440</v>
+      </c>
+      <c r="F80" t="s">
+        <v>441</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="50" customHeight="1">
+      <c r="A81" t="s">
+        <v>443</v>
+      </c>
+      <c r="B81" t="s">
+        <v>444</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E81" t="s">
+        <v>446</v>
+      </c>
+      <c r="F81" t="s">
+        <v>447</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="50" customHeight="1">
+      <c r="A82" t="s">
+        <v>449</v>
+      </c>
+      <c r="B82" t="s">
+        <v>450</v>
+      </c>
+      <c r="E82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F82" t="s">
+        <v>452</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="50" customHeight="1">
+      <c r="A83" t="s">
+        <v>454</v>
+      </c>
+      <c r="B83" t="s">
+        <v>455</v>
+      </c>
+      <c r="E83" t="s">
+        <v>326</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="50" customHeight="1">
+      <c r="A84" t="s">
+        <v>457</v>
+      </c>
+      <c r="B84" t="s">
+        <v>458</v>
+      </c>
+      <c r="E84" t="s">
+        <v>459</v>
+      </c>
+      <c r="F84" t="s">
+        <v>460</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="50" customHeight="1">
+      <c r="A85" t="s">
+        <v>462</v>
+      </c>
+      <c r="B85" t="s">
+        <v>463</v>
+      </c>
+      <c r="C85" t="s">
+        <v>464</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E85" t="s">
+        <v>466</v>
+      </c>
+      <c r="F85" t="s">
+        <v>467</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="50" customHeight="1">
+      <c r="A86" t="s">
+        <v>469</v>
+      </c>
+      <c r="B86" t="s">
+        <v>470</v>
+      </c>
+      <c r="E86" t="s">
+        <v>471</v>
+      </c>
+      <c r="F86" t="s">
+        <v>472</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="50" customHeight="1">
+      <c r="A87" t="s">
+        <v>474</v>
+      </c>
+      <c r="B87" t="s">
+        <v>475</v>
+      </c>
+      <c r="E87" t="s">
+        <v>476</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="50" customHeight="1">
+      <c r="A88" t="s">
+        <v>478</v>
+      </c>
+      <c r="B88" t="s">
+        <v>479</v>
+      </c>
+      <c r="E88" t="s">
+        <v>480</v>
+      </c>
+      <c r="F88" t="s">
+        <v>481</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="50" customHeight="1">
+      <c r="A89" t="s">
+        <v>483</v>
+      </c>
+      <c r="B89" t="s">
+        <v>484</v>
+      </c>
+      <c r="E89" t="s">
+        <v>485</v>
+      </c>
+      <c r="F89" t="s">
+        <v>486</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="50" customHeight="1">
+      <c r="A90" t="s">
+        <v>487</v>
+      </c>
+      <c r="B90" t="s">
+        <v>488</v>
+      </c>
+      <c r="C90" t="s">
+        <v>489</v>
+      </c>
+      <c r="E90" t="s">
+        <v>490</v>
+      </c>
+      <c r="F90" t="s">
+        <v>491</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="50" customHeight="1">
+      <c r="A91" t="s">
+        <v>493</v>
+      </c>
+      <c r="B91" t="s">
+        <v>494</v>
+      </c>
+      <c r="E91" t="s">
+        <v>495</v>
+      </c>
+      <c r="F91" t="s">
+        <v>496</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="50" customHeight="1">
+      <c r="A92" t="s">
+        <v>498</v>
+      </c>
+      <c r="B92" t="s">
+        <v>499</v>
+      </c>
+      <c r="C92" t="s">
+        <v>500</v>
+      </c>
+      <c r="E92" t="s">
+        <v>501</v>
+      </c>
+      <c r="F92" t="s">
+        <v>502</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="50" customHeight="1">
+      <c r="A93" t="s">
+        <v>503</v>
+      </c>
+      <c r="B93" t="s">
+        <v>504</v>
+      </c>
+      <c r="E93" t="s">
+        <v>505</v>
+      </c>
+      <c r="F93" t="s">
+        <v>506</v>
+      </c>
+      <c r="H93" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="50" customHeight="1">
+      <c r="A94" t="s">
+        <v>508</v>
+      </c>
+      <c r="B94" t="s">
+        <v>509</v>
+      </c>
+      <c r="E94" t="s">
+        <v>510</v>
+      </c>
+      <c r="F94" t="s">
+        <v>511</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="50" customHeight="1">
+      <c r="A95" t="s">
+        <v>513</v>
+      </c>
+      <c r="B95" t="s">
+        <v>514</v>
+      </c>
+      <c r="E95" t="s">
+        <v>515</v>
+      </c>
+      <c r="F95" t="s">
+        <v>516</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="50" customHeight="1">
+      <c r="A96" t="s">
+        <v>517</v>
+      </c>
+      <c r="B96" t="s">
+        <v>518</v>
+      </c>
+      <c r="E96" t="s">
+        <v>519</v>
+      </c>
+      <c r="F96" t="s">
+        <v>520</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="50" customHeight="1">
+      <c r="A97" t="s">
+        <v>522</v>
+      </c>
+      <c r="B97" t="s">
+        <v>523</v>
+      </c>
+      <c r="E97" t="s">
+        <v>524</v>
+      </c>
+      <c r="F97" t="s">
+        <v>525</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="50" customHeight="1">
+      <c r="A98" t="s">
+        <v>527</v>
+      </c>
+      <c r="B98" t="s">
+        <v>528</v>
+      </c>
+      <c r="E98" t="s">
+        <v>529</v>
+      </c>
+      <c r="F98" t="s">
+        <v>530</v>
+      </c>
+      <c r="H98" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="50" customHeight="1">
+      <c r="A99" t="s">
+        <v>532</v>
+      </c>
+      <c r="B99" t="s">
+        <v>533</v>
+      </c>
+      <c r="C99" t="s">
+        <v>534</v>
+      </c>
+      <c r="E99" t="s">
+        <v>535</v>
+      </c>
+      <c r="F99" t="s">
+        <v>536</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="50" customHeight="1">
+      <c r="A100" t="s">
+        <v>538</v>
+      </c>
+      <c r="B100" t="s">
+        <v>539</v>
+      </c>
+      <c r="E100" t="s">
+        <v>540</v>
+      </c>
+      <c r="F100" t="s">
+        <v>541</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="50" customHeight="1">
+      <c r="A101" t="s">
+        <v>543</v>
+      </c>
+      <c r="B101" t="s">
+        <v>544</v>
+      </c>
+      <c r="C101" t="s">
+        <v>545</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E101" t="s">
+        <v>547</v>
+      </c>
+      <c r="F101" t="s">
+        <v>548</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="50" customHeight="1">
+      <c r="A102" t="s">
+        <v>550</v>
+      </c>
+      <c r="B102" t="s">
+        <v>551</v>
+      </c>
+      <c r="E102" t="s">
+        <v>552</v>
+      </c>
+      <c r="F102" t="s">
+        <v>553</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="50" customHeight="1">
+      <c r="A103" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" t="s">
+        <v>555</v>
+      </c>
+      <c r="E103" t="s">
+        <v>556</v>
+      </c>
+      <c r="F103" t="s">
+        <v>557</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="50" customHeight="1">
+      <c r="A104" t="s">
+        <v>559</v>
+      </c>
+      <c r="B104" t="s">
+        <v>560</v>
+      </c>
+      <c r="C104" t="s">
+        <v>561</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E104" t="s">
+        <v>563</v>
+      </c>
+      <c r="F104" t="s">
+        <v>564</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="50" customHeight="1">
+      <c r="A105" t="s">
+        <v>566</v>
+      </c>
+      <c r="B105" t="s">
+        <v>567</v>
+      </c>
+      <c r="E105" t="s">
+        <v>568</v>
+      </c>
+      <c r="F105" t="s">
+        <v>569</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="50" customHeight="1">
+      <c r="A106" t="s">
+        <v>571</v>
+      </c>
+      <c r="B106" t="s">
+        <v>572</v>
+      </c>
+      <c r="C106" t="s">
+        <v>573</v>
+      </c>
+      <c r="E106" t="s">
+        <v>574</v>
+      </c>
+      <c r="F106" t="s">
+        <v>575</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="G6" r:id="rId7"/>
+    <hyperlink ref="D7" r:id="rId8"/>
+    <hyperlink ref="G7" r:id="rId9"/>
+    <hyperlink ref="D8" r:id="rId10"/>
+    <hyperlink ref="G8" r:id="rId11"/>
+    <hyperlink ref="D9" r:id="rId12"/>
+    <hyperlink ref="G9" r:id="rId13"/>
+    <hyperlink ref="G10" r:id="rId14"/>
+    <hyperlink ref="G11" r:id="rId15"/>
+    <hyperlink ref="G12" r:id="rId16"/>
+    <hyperlink ref="D13" r:id="rId17"/>
+    <hyperlink ref="G13" r:id="rId18"/>
+    <hyperlink ref="G14" r:id="rId19"/>
+    <hyperlink ref="G15" r:id="rId20"/>
+    <hyperlink ref="D16" r:id="rId21"/>
+    <hyperlink ref="G17" r:id="rId22"/>
+    <hyperlink ref="D18" r:id="rId23"/>
+    <hyperlink ref="G18" r:id="rId24"/>
+    <hyperlink ref="G19" r:id="rId25"/>
+    <hyperlink ref="G20" r:id="rId26"/>
+    <hyperlink ref="G21" r:id="rId27"/>
+    <hyperlink ref="G22" r:id="rId28"/>
+    <hyperlink ref="D23" r:id="rId29"/>
+    <hyperlink ref="G23" r:id="rId30"/>
+    <hyperlink ref="G24" r:id="rId31"/>
+    <hyperlink ref="D25" r:id="rId32"/>
+    <hyperlink ref="G25" r:id="rId33"/>
+    <hyperlink ref="G26" r:id="rId34"/>
+    <hyperlink ref="G27" r:id="rId35"/>
+    <hyperlink ref="C28" r:id="rId36"/>
+    <hyperlink ref="G28" r:id="rId37"/>
+    <hyperlink ref="G29" r:id="rId38"/>
+    <hyperlink ref="D30" r:id="rId39"/>
+    <hyperlink ref="G30" r:id="rId40"/>
+    <hyperlink ref="D31" r:id="rId41"/>
+    <hyperlink ref="G32" r:id="rId42"/>
+    <hyperlink ref="G33" r:id="rId43"/>
+    <hyperlink ref="G34" r:id="rId44"/>
+    <hyperlink ref="G35" r:id="rId45"/>
+    <hyperlink ref="D36" r:id="rId46"/>
+    <hyperlink ref="G36" r:id="rId47"/>
+    <hyperlink ref="G37" r:id="rId48"/>
+    <hyperlink ref="G38" r:id="rId49"/>
+    <hyperlink ref="G39" r:id="rId50"/>
+    <hyperlink ref="G40" r:id="rId51"/>
+    <hyperlink ref="G41" r:id="rId52"/>
+    <hyperlink ref="G42" r:id="rId53"/>
+    <hyperlink ref="G43" r:id="rId54"/>
+    <hyperlink ref="G44" r:id="rId55"/>
+    <hyperlink ref="D45" r:id="rId56"/>
+    <hyperlink ref="G45" r:id="rId57"/>
+    <hyperlink ref="G46" r:id="rId58"/>
+    <hyperlink ref="G47" r:id="rId59"/>
+    <hyperlink ref="G48" r:id="rId60"/>
+    <hyperlink ref="D49" r:id="rId61"/>
+    <hyperlink ref="G49" r:id="rId62"/>
+    <hyperlink ref="G50" r:id="rId63"/>
+    <hyperlink ref="G51" r:id="rId64"/>
+    <hyperlink ref="D52" r:id="rId65"/>
+    <hyperlink ref="G52" r:id="rId66"/>
+    <hyperlink ref="G53" r:id="rId67"/>
+    <hyperlink ref="D54" r:id="rId68"/>
+    <hyperlink ref="G54" r:id="rId69"/>
+    <hyperlink ref="G55" r:id="rId70"/>
+    <hyperlink ref="D56" r:id="rId71"/>
+    <hyperlink ref="G56" r:id="rId72"/>
+    <hyperlink ref="D57" r:id="rId73"/>
+    <hyperlink ref="G57" r:id="rId74"/>
+    <hyperlink ref="G58" r:id="rId75"/>
+    <hyperlink ref="D59" r:id="rId76"/>
+    <hyperlink ref="G59" r:id="rId77"/>
+    <hyperlink ref="G60" r:id="rId78"/>
+    <hyperlink ref="G61" r:id="rId79"/>
+    <hyperlink ref="G62" r:id="rId80"/>
+    <hyperlink ref="G63" r:id="rId81"/>
+    <hyperlink ref="D64" r:id="rId82"/>
+    <hyperlink ref="G64" r:id="rId83"/>
+    <hyperlink ref="G65" r:id="rId84"/>
+    <hyperlink ref="C66" r:id="rId85"/>
+    <hyperlink ref="G66" r:id="rId86"/>
+    <hyperlink ref="G67" r:id="rId87"/>
+    <hyperlink ref="D68" r:id="rId88"/>
+    <hyperlink ref="G68" r:id="rId89"/>
+    <hyperlink ref="G69" r:id="rId90"/>
+    <hyperlink ref="D70" r:id="rId91"/>
+    <hyperlink ref="G70" r:id="rId92"/>
+    <hyperlink ref="G71" r:id="rId93"/>
+    <hyperlink ref="G72" r:id="rId94"/>
+    <hyperlink ref="D73" r:id="rId95"/>
+    <hyperlink ref="G73" r:id="rId96"/>
+    <hyperlink ref="G74" r:id="rId97"/>
+    <hyperlink ref="D75" r:id="rId98"/>
+    <hyperlink ref="G75" r:id="rId99"/>
+    <hyperlink ref="G76" r:id="rId100"/>
+    <hyperlink ref="G77" r:id="rId101"/>
+    <hyperlink ref="G78" r:id="rId102"/>
+    <hyperlink ref="D79" r:id="rId103"/>
+    <hyperlink ref="G79" r:id="rId104"/>
+    <hyperlink ref="G80" r:id="rId105"/>
+    <hyperlink ref="D81" r:id="rId106"/>
+    <hyperlink ref="G81" r:id="rId107"/>
+    <hyperlink ref="G82" r:id="rId108"/>
+    <hyperlink ref="G83" r:id="rId109"/>
+    <hyperlink ref="G84" r:id="rId110"/>
+    <hyperlink ref="D85" r:id="rId111"/>
+    <hyperlink ref="G85" r:id="rId112"/>
+    <hyperlink ref="G86" r:id="rId113"/>
+    <hyperlink ref="G87" r:id="rId114"/>
+    <hyperlink ref="G88" r:id="rId115"/>
+    <hyperlink ref="G89" r:id="rId116"/>
+    <hyperlink ref="G90" r:id="rId117"/>
+    <hyperlink ref="G91" r:id="rId118"/>
+    <hyperlink ref="G92" r:id="rId119"/>
+    <hyperlink ref="G94" r:id="rId120"/>
+    <hyperlink ref="G95" r:id="rId121"/>
+    <hyperlink ref="G96" r:id="rId122"/>
+    <hyperlink ref="G97" r:id="rId123"/>
+    <hyperlink ref="G99" r:id="rId124"/>
+    <hyperlink ref="G100" r:id="rId125"/>
+    <hyperlink ref="D101" r:id="rId126"/>
+    <hyperlink ref="G101" r:id="rId127"/>
+    <hyperlink ref="G102" r:id="rId128"/>
+    <hyperlink ref="G103" r:id="rId129"/>
+    <hyperlink ref="D104" r:id="rId130"/>
+    <hyperlink ref="G104" r:id="rId131"/>
+    <hyperlink ref="G105" r:id="rId132"/>
+    <hyperlink ref="G106" r:id="rId133"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/loerrach.xlsx
+++ b/loerrach.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="679">
   <si>
     <t>Firmenname</t>
   </si>
@@ -40,6 +40,15 @@
     <t>Telefonnummer</t>
   </si>
   <si>
+    <t>noch freie Plätze</t>
+  </si>
+  <si>
+    <t>möglicherweise noch freie Plätze</t>
+  </si>
+  <si>
+    <t>alle Plätze belegt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abrechnungszentrum Emmendingen </t>
   </si>
   <si>
@@ -58,7 +67,7 @@
     <t>kscharbach@arz-emmendingen.de</t>
   </si>
   <si>
-    <t>HP</t>
+    <t>http://www.arz-emmendingen.de</t>
   </si>
   <si>
     <t>+49 7641 9201-117</t>
@@ -94,6 +103,9 @@
     <t>hacker@akgsoftware.de</t>
   </si>
   <si>
+    <t>http://www.akgsoftware.de</t>
+  </si>
+  <si>
     <t>+49 7634 5612-0</t>
   </si>
   <si>
@@ -109,6 +121,9 @@
     <t>daniela-ines.maerkle@allgeier-es.com</t>
   </si>
   <si>
+    <t>http://www.allgeier.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aluminium-Werke Wutöschingen AG &amp; Co. KG </t>
   </si>
   <si>
@@ -124,6 +139,9 @@
     <t>bebi@aww.de</t>
   </si>
   <si>
+    <t>http://www.aww.de</t>
+  </si>
+  <si>
     <t>+49 7746 81-223</t>
   </si>
   <si>
@@ -142,6 +160,9 @@
     <t>bewerbung@autokabel.com</t>
   </si>
   <si>
+    <t>http://www.autokabel.com</t>
+  </si>
+  <si>
     <t>+49 7622 3903 415</t>
   </si>
   <si>
@@ -163,6 +184,9 @@
     <t>Job@badenIT.de</t>
   </si>
   <si>
+    <t>http://www.badenit.de/unternehmen/karriere</t>
+  </si>
+  <si>
     <t>+49 761 5035-2441</t>
   </si>
   <si>
@@ -184,6 +208,9 @@
     <t>steven.adam@baloise.com</t>
   </si>
   <si>
+    <t>http://www.baloise.ch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bechtle GmbH IT-Systemhaus Freiburg </t>
   </si>
   <si>
@@ -193,6 +220,9 @@
     <t>Frau Martina Suttner</t>
   </si>
   <si>
+    <t>http://www.bechtle.com</t>
+  </si>
+  <si>
     <t>www.bechtle.com</t>
   </si>
   <si>
@@ -208,6 +238,9 @@
     <t>stefan.schraps@bodytel.com</t>
   </si>
   <si>
+    <t>http://www.bodytel.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bucher Hydraulics GmbH </t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>application@bucherhydraulics.com</t>
   </si>
   <si>
+    <t>http://www.bucherhydraulics.com</t>
+  </si>
+  <si>
     <t>+49 7742 852-371</t>
   </si>
   <si>
@@ -238,6 +274,9 @@
     <t>Frau Elena Oesterle</t>
   </si>
   <si>
+    <t>http://www.cargarantie.com</t>
+  </si>
+  <si>
     <t>www.cargarantie.com</t>
   </si>
   <si>
@@ -253,6 +292,9 @@
     <t>j.lorenz@clcgrenzach.com</t>
   </si>
   <si>
+    <t>http://www.clcgrenzach.com</t>
+  </si>
+  <si>
     <t>+49 7624 91410-0</t>
   </si>
   <si>
@@ -268,6 +310,9 @@
     <t>detlef.brunen@coop.ch</t>
   </si>
   <si>
+    <t>http://www.coop.ch</t>
+  </si>
+  <si>
     <t>+41 79 459 53 83</t>
   </si>
   <si>
@@ -301,6 +346,9 @@
     <t>beat.gersbach@definition12.com</t>
   </si>
   <si>
+    <t>http://www.definition12.com/de/lab</t>
+  </si>
+  <si>
     <t>+41 61 4112525</t>
   </si>
   <si>
@@ -319,6 +367,9 @@
     <t>jobs@digitalpatrioten.com</t>
   </si>
   <si>
+    <t>http://www.digitalpatrioten.com</t>
+  </si>
+  <si>
     <t>+49 761 458 944 16</t>
   </si>
   <si>
@@ -334,6 +385,9 @@
     <t>online.bewerbung@dunkermotoren.com</t>
   </si>
   <si>
+    <t>http://www.dunkermotoren.com</t>
+  </si>
+  <si>
     <t>+49 7703 930-417</t>
   </si>
   <si>
@@ -349,6 +403,9 @@
     <t>Anja.milanovic@energiedienst.de</t>
   </si>
   <si>
+    <t>http://www.energiedienst.de</t>
+  </si>
+  <si>
     <t>+49 7763 81-2552</t>
   </si>
   <si>
@@ -367,6 +424,9 @@
     <t>bewerbung@flex-air.com</t>
   </si>
   <si>
+    <t>http://www.flex-air.com</t>
+  </si>
+  <si>
     <t>+49 7627 922033</t>
   </si>
   <si>
@@ -382,6 +442,9 @@
     <t>axel.brendle@ise.fraunhofer.de</t>
   </si>
   <si>
+    <t>http://www.ise.fraunhofer.de</t>
+  </si>
+  <si>
     <t>+49 761 4588-5277</t>
   </si>
   <si>
@@ -400,6 +463,9 @@
     <t>Frau Sarah Gnädinger</t>
   </si>
   <si>
+    <t>http://www.emi.fraunhofer.de</t>
+  </si>
+  <si>
     <t>www.emi.fraunhofer.de</t>
   </si>
   <si>
@@ -418,6 +484,9 @@
     <t>andrea.reynolds@gst-global.com</t>
   </si>
   <si>
+    <t>http://www.global-safety-textiles.com</t>
+  </si>
+  <si>
     <t>+49 7622 68846-139</t>
   </si>
   <si>
@@ -439,6 +508,9 @@
     <t>miroth@grenke.de</t>
   </si>
   <si>
+    <t>http://www.grenkeleasing.de</t>
+  </si>
+  <si>
     <t>+49 7221 5007-170</t>
   </si>
   <si>
@@ -454,6 +526,9 @@
     <t>stefanie.buehrer@haufe-lexware.com</t>
   </si>
   <si>
+    <t>http://www.haufe-lexware.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hecht Contactlinsen GmbH </t>
   </si>
   <si>
@@ -466,6 +541,9 @@
     <t>frank.widmer@hecht-contactlinsen.de</t>
   </si>
   <si>
+    <t>http://www.hecht-contactlinsen.de</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hectronic GmbH </t>
   </si>
   <si>
@@ -481,6 +559,9 @@
     <t>ebi@hectronic.com</t>
   </si>
   <si>
+    <t>http://www.hectronic.com</t>
+  </si>
+  <si>
     <t>+49 7703 9388-7388</t>
   </si>
   <si>
@@ -496,6 +577,9 @@
     <t>personal@hella-gutmann.com</t>
   </si>
   <si>
+    <t>http://www.hella-gutmann.com</t>
+  </si>
+  <si>
     <t>+49 7668 9900 1861</t>
   </si>
   <si>
@@ -514,6 +598,9 @@
     <t>Bewerbung@highQ.de</t>
   </si>
   <si>
+    <t>http://www.highq.de</t>
+  </si>
+  <si>
     <t>+49 761 7060 40</t>
   </si>
   <si>
@@ -547,6 +634,9 @@
     <t>r.klingert@ibitech.com</t>
   </si>
   <si>
+    <t>http://www.ibitech.ch</t>
+  </si>
+  <si>
     <t>+41 61 46575-17</t>
   </si>
   <si>
@@ -562,6 +652,9 @@
     <t>ausbildung@innobit.ch</t>
   </si>
   <si>
+    <t>http://www.innobit.ch</t>
+  </si>
+  <si>
     <t>+41 61 695 98 00</t>
   </si>
   <si>
@@ -577,6 +670,9 @@
     <t>sabine.schmidt-fimpel@jetaviation.ch</t>
   </si>
   <si>
+    <t>http://www.jetaviation.com/</t>
+  </si>
+  <si>
     <t>+41 58 1584762</t>
   </si>
   <si>
@@ -595,6 +691,9 @@
     <t>s.junker@kaltenbach.de</t>
   </si>
   <si>
+    <t>http://www.kaltenbach.com</t>
+  </si>
+  <si>
     <t>+49 7621 175-255</t>
   </si>
   <si>
@@ -616,6 +715,9 @@
     <t>ausbildung@kivbf.de</t>
   </si>
   <si>
+    <t>http://www.kivbf.de</t>
+  </si>
+  <si>
     <t>+49 7131 958 161</t>
   </si>
   <si>
@@ -631,6 +733,9 @@
     <t>maike.steinbach@loerrach-landkreis.de</t>
   </si>
   <si>
+    <t>http://www.loerrach-landkreis.de</t>
+  </si>
+  <si>
     <t>07621 410 1216</t>
   </si>
   <si>
@@ -649,6 +754,9 @@
     <t>karriere@jobrad.org</t>
   </si>
   <si>
+    <t>http://www.jobrad.org</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leitwerk AG Niederlassung Freiburg </t>
   </si>
   <si>
@@ -661,6 +769,9 @@
     <t>abocek@leitwerk.de</t>
   </si>
   <si>
+    <t>http://www.leitwerk.de</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liebensteiner Kartonagenwerk GmbH </t>
   </si>
   <si>
@@ -673,6 +784,9 @@
     <t>w.forster@liebensteiner.de</t>
   </si>
   <si>
+    <t>http://www.liebensteiner.de</t>
+  </si>
+  <si>
     <t>+49 9631 605-105</t>
   </si>
   <si>
@@ -691,6 +805,9 @@
     <t>personal@m-tec.com</t>
   </si>
   <si>
+    <t>http://www.m-tec.com</t>
+  </si>
+  <si>
     <t>+49 7631 709-130</t>
   </si>
   <si>
@@ -706,6 +823,9 @@
     <t>jobs@magnolia-cms.com</t>
   </si>
   <si>
+    <t>http://www.magnolia-cms.com</t>
+  </si>
+  <si>
     <t>+41 61 228 90 05</t>
   </si>
   <si>
@@ -721,6 +841,9 @@
     <t>personal@medianet-freiburg.de</t>
   </si>
   <si>
+    <t>http://www.medianet-freiburg.de</t>
+  </si>
+  <si>
     <t>0761 496 -1400</t>
   </si>
   <si>
@@ -739,6 +862,9 @@
     <t>info@meteoblue.com</t>
   </si>
   <si>
+    <t>http://www.meteoblue.com</t>
+  </si>
+  <si>
     <t>+41 61 5353301</t>
   </si>
   <si>
@@ -757,6 +883,9 @@
     <t>dieter.sander@mimot.de</t>
   </si>
   <si>
+    <t>http://www.mimot.com</t>
+  </si>
+  <si>
     <t>+49 7621 9578-20</t>
   </si>
   <si>
@@ -775,6 +904,9 @@
     <t>elina.schulz@motherson.com</t>
   </si>
   <si>
+    <t>http://www.mind-infotech.com</t>
+  </si>
+  <si>
     <t>+49 6051 91524-66</t>
   </si>
   <si>
@@ -790,6 +922,9 @@
     <t>nicki@nimius.net</t>
   </si>
   <si>
+    <t>http://www.nimius.net</t>
+  </si>
+  <si>
     <t>+49 7633 93990-66</t>
   </si>
   <si>
@@ -808,6 +943,9 @@
     <t>jobs@oxid-esales.com</t>
   </si>
   <si>
+    <t>http://www.oxid-esales.com</t>
+  </si>
+  <si>
     <t>+49 761 36889-267</t>
   </si>
   <si>
@@ -826,6 +964,9 @@
     <t>m.uecker@penta-electric.ch</t>
   </si>
   <si>
+    <t>http://http://www.penta-electric.ch/?folder=plugins/jobs.ch</t>
+  </si>
+  <si>
     <t>+41 61 4163636</t>
   </si>
   <si>
@@ -841,6 +982,9 @@
     <t>j.braccini@pharmatronic.ch</t>
   </si>
   <si>
+    <t>http://www.pharmatronic.ch</t>
+  </si>
+  <si>
     <t>+41 61 8269726</t>
   </si>
   <si>
@@ -859,6 +1003,9 @@
     <t>karriere@ppedv.de</t>
   </si>
   <si>
+    <t>http://www.ppedv.de</t>
+  </si>
+  <si>
     <t xml:space="preserve">PricewaterhouseCoopers AG </t>
   </si>
   <si>
@@ -877,6 +1024,9 @@
     <t>valerie.malcherek@ch.pwc.com</t>
   </si>
   <si>
+    <t>http://www.pwc.ch</t>
+  </si>
+  <si>
     <t>+41 58 792 51 49</t>
   </si>
   <si>
@@ -892,6 +1042,9 @@
     <t>Frau Maren Billian</t>
   </si>
   <si>
+    <t>http://www.reservix.net</t>
+  </si>
+  <si>
     <t>www.reservix.net</t>
   </si>
   <si>
@@ -913,6 +1066,9 @@
     <t>bewerbung@retel.ch</t>
   </si>
   <si>
+    <t>http://www.retel.ch</t>
+  </si>
+  <si>
     <t>+41 52 6724252</t>
   </si>
   <si>
@@ -928,6 +1084,9 @@
     <t>freiburg-bewerbung@rhodia-acetow.com</t>
   </si>
   <si>
+    <t>http://www.rhodia-acetow.com</t>
+  </si>
+  <si>
     <t>+49 761 511-3630</t>
   </si>
   <si>
@@ -949,6 +1108,9 @@
     <t>harald.guess@sanawork.de</t>
   </si>
   <si>
+    <t>http://www.sanawork.de</t>
+  </si>
+  <si>
     <t>+49 761 151548-2</t>
   </si>
   <si>
@@ -967,6 +1129,9 @@
     <t>Frau Anna Hoffmann</t>
   </si>
   <si>
+    <t>http://www.scheer-group.com/karriere/stellen</t>
+  </si>
+  <si>
     <t>www.scheer-group.com/karriere/stellen</t>
   </si>
   <si>
@@ -982,6 +1147,9 @@
     <t>bewerbung@schmolck.de</t>
   </si>
   <si>
+    <t>http://www.schmolck.de/unternehmen/jobs-ausbildung/ausbildungsangebote/dhbw-studiengaenge/</t>
+  </si>
+  <si>
     <t>07641/4602-227</t>
   </si>
   <si>
@@ -1000,6 +1168,9 @@
     <t>bewerbung@stackforce.de</t>
   </si>
   <si>
+    <t>http://www.stackforce.de</t>
+  </si>
+  <si>
     <t>07634/69960 20</t>
   </si>
   <si>
@@ -1015,6 +1186,9 @@
     <t>mgeiger@stepnet.de</t>
   </si>
   <si>
+    <t>http://www.stepnet.de</t>
+  </si>
+  <si>
     <t>+49 7621 4057-64</t>
   </si>
   <si>
@@ -1030,6 +1204,9 @@
     <t>a.knobel@stiegeler.com</t>
   </si>
   <si>
+    <t>http://www.stiegeler.com</t>
+  </si>
+  <si>
     <t>+49 7673 88899-20</t>
   </si>
   <si>
@@ -1045,6 +1222,9 @@
     <t>cornelia.weismann@streck.de</t>
   </si>
   <si>
+    <t>http://www.streck-transport.com</t>
+  </si>
+  <si>
     <t>+49 761 1305-246</t>
   </si>
   <si>
@@ -1060,6 +1240,9 @@
     <t>Frau Jessica Schaerer</t>
   </si>
   <si>
+    <t>http://www.syngentajob.ch</t>
+  </si>
+  <si>
     <t>www.syngentajob.ch</t>
   </si>
   <si>
@@ -1081,6 +1264,9 @@
     <t>Kerstin.Langohr@tecalliance.net</t>
   </si>
   <si>
+    <t>http://www.tecalliance.net/de/karriere/</t>
+  </si>
+  <si>
     <t>+49 7934 99299-525</t>
   </si>
   <si>
@@ -1096,6 +1282,9 @@
     <t>kriesterer@testotis.de</t>
   </si>
   <si>
+    <t>http://www.testotis.de</t>
+  </si>
+  <si>
     <t>+49 7661 90901 8074</t>
   </si>
   <si>
@@ -1114,6 +1303,9 @@
     <t>ausbildung@trendswm.de</t>
   </si>
   <si>
+    <t>http://www.trendswm.de</t>
+  </si>
+  <si>
     <t>+49 761 88880-42</t>
   </si>
   <si>
@@ -1129,6 +1321,9 @@
     <t>caspar.vonstuelpnagel@trivadis.com</t>
   </si>
   <si>
+    <t>http://www.trivadis-karriere.com</t>
+  </si>
+  <si>
     <t>+41-58-459 50 65</t>
   </si>
   <si>
@@ -1147,6 +1342,9 @@
     <t>Herr Peter Doelfs</t>
   </si>
   <si>
+    <t>http://www.herzzentrum.de</t>
+  </si>
+  <si>
     <t>www.herzzentrum.de</t>
   </si>
   <si>
@@ -1165,6 +1363,9 @@
     <t>anne.greiner@vitra.com</t>
   </si>
   <si>
+    <t>http://www.vitra.com</t>
+  </si>
+  <si>
     <t>+49 7621 702 3083</t>
   </si>
   <si>
@@ -1186,6 +1387,9 @@
     <t>marco.meklenburg@we-online.de</t>
   </si>
   <si>
+    <t>http://www.we-online.de</t>
+  </si>
+  <si>
     <t>+49 7622 397-153</t>
   </si>
   <si>
@@ -1201,6 +1405,9 @@
     <t>personal@z-laser.de </t>
   </si>
   <si>
+    <t>http://www.z-laser.com</t>
+  </si>
+  <si>
     <t>+49 761 2964-444</t>
   </si>
   <si>
@@ -1216,6 +1423,9 @@
     <t>ausbildung@de.araymond.com</t>
   </si>
   <si>
+    <t>http://www.raymond.de</t>
+  </si>
+  <si>
     <t>+49 7621 174-2525</t>
   </si>
   <si>
@@ -1234,6 +1444,9 @@
     <t>Frau Hanna Bergner</t>
   </si>
   <si>
+    <t>http://www.coresystems.net</t>
+  </si>
+  <si>
     <t>www.coresystems.net</t>
   </si>
   <si>
@@ -1252,6 +1465,9 @@
     <t>anneliese.macalister-smith@ipm.fraunhofer.de</t>
   </si>
   <si>
+    <t>http://www.ipm.fraunhofer.de</t>
+  </si>
+  <si>
     <t>+49 761 8857-112</t>
   </si>
   <si>
@@ -1273,6 +1489,9 @@
     <t>tiziana.tummarello@actemium.ch</t>
   </si>
   <si>
+    <t>http://www.actemium.ch</t>
+  </si>
+  <si>
     <t>+41 61 316 63 52</t>
   </si>
   <si>
@@ -1288,6 +1507,9 @@
     <t>lucia.menner@axxelia.com</t>
   </si>
   <si>
+    <t>http://www.axxelia.com</t>
+  </si>
+  <si>
     <t>+49 761 205514-05</t>
   </si>
   <si>
@@ -1303,6 +1525,9 @@
     <t>info@befine-solutions.com</t>
   </si>
   <si>
+    <t>http://www.befine-solutions.com</t>
+  </si>
+  <si>
     <t>+49 761 38913-120</t>
   </si>
   <si>
@@ -1318,6 +1543,9 @@
     <t>hr@canoo.com</t>
   </si>
   <si>
+    <t>http://www.canoo.com</t>
+  </si>
+  <si>
     <t>+41 61 228 94 44</t>
   </si>
   <si>
@@ -1327,6 +1555,9 @@
     <t xml:space="preserve">Schloßbergring 15 DE-79098 Freiburg im Breisgau </t>
   </si>
   <si>
+    <t>http://www.coresuite.com</t>
+  </si>
+  <si>
     <t>www.coresuite.com</t>
   </si>
   <si>
@@ -1342,6 +1573,9 @@
     <t>Ausbildung@infoserve.endress.com</t>
   </si>
   <si>
+    <t>http://www.infoserve.endress.com</t>
+  </si>
+  <si>
     <t>+49 7621 975-835</t>
   </si>
   <si>
@@ -1360,6 +1594,9 @@
     <t>rosi.huber@eschbachit.com</t>
   </si>
   <si>
+    <t>http://www.eschbachIT.com</t>
+  </si>
+  <si>
     <t>+49 7761 559 59-16</t>
   </si>
   <si>
@@ -1375,6 +1612,9 @@
     <t>birgit.bachimont@europapark.de</t>
   </si>
   <si>
+    <t>http://www.europapark.com</t>
+  </si>
+  <si>
     <t>+49 7822 77-15420</t>
   </si>
   <si>
@@ -1384,6 +1624,9 @@
     <t xml:space="preserve">Riegeler Straße 12 DE-79111 Freiburg </t>
   </si>
   <si>
+    <t>http://www.freicon.de</t>
+  </si>
+  <si>
     <t>www.freicon.de</t>
   </si>
   <si>
@@ -1399,6 +1642,9 @@
     <t>personal@freinet.de</t>
   </si>
   <si>
+    <t>http://www.freinet.de</t>
+  </si>
+  <si>
     <t>+49 761 496-1700</t>
   </si>
   <si>
@@ -1420,6 +1666,9 @@
     <t>bewerbung@geiger-textil.de</t>
   </si>
   <si>
+    <t>http://www.geiger-textil.de</t>
+  </si>
+  <si>
     <t>+49 7761 55900-0</t>
   </si>
   <si>
@@ -1435,6 +1684,9 @@
     <t>jobs@glatt.com</t>
   </si>
   <si>
+    <t>http://www.glatt.com</t>
+  </si>
+  <si>
     <t>+49 7621 664-301</t>
   </si>
   <si>
@@ -1447,6 +1699,9 @@
     <t>Frau Elena Hajou</t>
   </si>
   <si>
+    <t>http://www.grandcentrix.net/jobs</t>
+  </si>
+  <si>
     <t>www.grandcentrix.net/jobs</t>
   </si>
   <si>
@@ -1462,6 +1717,9 @@
     <t>daniel.beck@adlerschwarzwald.de</t>
   </si>
   <si>
+    <t>http://www.adlerschwarzwald.de</t>
+  </si>
+  <si>
     <t>+49 7703 832-34</t>
   </si>
   <si>
@@ -1477,6 +1735,9 @@
     <t>personal@hummel.com</t>
   </si>
   <si>
+    <t>http://www.hummel.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">iRIX Software Engineering AG </t>
   </si>
   <si>
@@ -1492,6 +1753,9 @@
     <t>jobs@irix.ch</t>
   </si>
   <si>
+    <t>http://www.irix.ch</t>
+  </si>
+  <si>
     <t>+41 61 3679332</t>
   </si>
   <si>
@@ -1507,6 +1771,9 @@
     <t>christian.braun@karlstorz.com</t>
   </si>
   <si>
+    <t>http://www.karlstorz.de</t>
+  </si>
+  <si>
     <t>+49 7461 708-548</t>
   </si>
   <si>
@@ -1525,6 +1792,9 @@
     <t>svenja.dorn@kumavision.com</t>
   </si>
   <si>
+    <t>http://www.kumavision.de</t>
+  </si>
+  <si>
     <t xml:space="preserve">Landratsamt Breisgau-Hochschwarzwald </t>
   </si>
   <si>
@@ -1552,6 +1822,9 @@
     <t>renate.wunderlin@manor.ch</t>
   </si>
   <si>
+    <t>http://www.manor.ch</t>
+  </si>
+  <si>
     <t>+41 61 686-1177</t>
   </si>
   <si>
@@ -1567,6 +1840,9 @@
     <t>birgit.raila@presse-druck.de</t>
   </si>
   <si>
+    <t>http://www.medienakademie-augsburg.de</t>
+  </si>
+  <si>
     <t xml:space="preserve">MSC Technologies Systems GmbH </t>
   </si>
   <si>
@@ -1579,6 +1855,9 @@
     <t>Eva.Gumbert@msc-technologies.eu</t>
   </si>
   <si>
+    <t>http://www.msc-freiburg.de</t>
+  </si>
+  <si>
     <t>+49 761 8819-620</t>
   </si>
   <si>
@@ -1594,6 +1873,9 @@
     <t>personal@ng-litef.de</t>
   </si>
   <si>
+    <t>http://www.northropgrumman.litef.com/jobs-karriere/ausbildung/ausbildungsberufe/bachelor-of-engineer</t>
+  </si>
+  <si>
     <t>+49 761 4901-260</t>
   </si>
   <si>
@@ -1627,6 +1909,9 @@
     <t>joerg.haerdle@regiodata-gmbh.de</t>
   </si>
   <si>
+    <t>http://www.regiodata-gmbh.de</t>
+  </si>
+  <si>
     <t>+49 7621 91943-0</t>
   </si>
   <si>
@@ -1642,6 +1927,9 @@
     <t>Cornelia.Scheller@rib-cosinus.com</t>
   </si>
   <si>
+    <t>http://www.rib-cosinus.com</t>
+  </si>
+  <si>
     <t>+49 761 51004-826</t>
   </si>
   <si>
@@ -1663,6 +1951,9 @@
     <t>jobs@sensopart.de</t>
   </si>
   <si>
+    <t>http://www.sensopart.de</t>
+  </si>
+  <si>
     <t>07665 947669-827</t>
   </si>
   <si>
@@ -1678,6 +1969,9 @@
     <t>j.teske@spar-mit.com</t>
   </si>
   <si>
+    <t>http://www.spar-mit.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sto SE &amp; Co. KGaA </t>
   </si>
   <si>
@@ -1690,6 +1984,9 @@
     <t>ausbildung.de@sto.com</t>
   </si>
   <si>
+    <t>http://www.sto.de</t>
+  </si>
+  <si>
     <t>+49 7744 57-1700</t>
   </si>
   <si>
@@ -1711,6 +2008,9 @@
     <t>michael.kraus@uniklinik-freiburg.de</t>
   </si>
   <si>
+    <t>http://www.uniklinik-freiburg.de</t>
+  </si>
+  <si>
     <t>+49 761 270-22060</t>
   </si>
   <si>
@@ -1726,6 +2026,9 @@
     <t>mbuchauer@uhbs.ch</t>
   </si>
   <si>
+    <t>http://www.unispital-basel.ch</t>
+  </si>
+  <si>
     <t>+41 61 265-3841</t>
   </si>
   <si>
@@ -1742,6 +2045,9 @@
   </si>
   <si>
     <t>cglueck@carhartt-wip.com</t>
+  </si>
+  <si>
+    <t>http://www.carhartt-wip.com</t>
   </si>
   <si>
     <t>+49 7621 966 743</t>
@@ -2089,7 +2395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2100,11 +2406,12 @@
     <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" customHeight="1">
+    <row r="1" spans="1:9" ht="19" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2129,2243 +2436,2558 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="50" customHeight="1">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="50" customHeight="1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="50" customHeight="1">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="50" customHeight="1">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="50" customHeight="1">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="50" customHeight="1">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="50" customHeight="1">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="50" customHeight="1">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="50" customHeight="1">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="50" customHeight="1">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="50" customHeight="1">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="50" customHeight="1">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="50" customHeight="1">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="50" customHeight="1">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="50" customHeight="1">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="50" customHeight="1">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="50" customHeight="1">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="50" customHeight="1">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="50" customHeight="1">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="50" customHeight="1">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="50" customHeight="1">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="50" customHeight="1">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="50" customHeight="1">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="50" customHeight="1">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="50" customHeight="1">
+      <c r="A25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="50" customHeight="1">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="50" customHeight="1">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="50" customHeight="1">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="50" customHeight="1">
+      <c r="A29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="50" customHeight="1">
+      <c r="A30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="50" customHeight="1">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="50" customHeight="1">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="50" customHeight="1">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H33" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="50" customHeight="1">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="50" customHeight="1">
+      <c r="A35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="50" customHeight="1">
+      <c r="A36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H36" t="s">
+        <v>234</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="50" customHeight="1">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="50" customHeight="1">
+      <c r="A38" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="50" customHeight="1">
+      <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="50" customHeight="1">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" t="s">
+        <v>255</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="50" customHeight="1">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H41" t="s">
+        <v>264</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="50" customHeight="1">
+      <c r="A42" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H42" t="s">
+        <v>270</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="50" customHeight="1">
+      <c r="A43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" t="s">
+        <v>276</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="50" customHeight="1">
+      <c r="A44" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H44" t="s">
+        <v>283</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="50" customHeight="1">
+      <c r="A45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" t="s">
+        <v>287</v>
+      </c>
+      <c r="F45" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="50" customHeight="1">
+      <c r="A46" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H46" t="s">
+        <v>297</v>
+      </c>
+      <c r="I46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="50" customHeight="1">
+      <c r="A47" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" t="s">
+        <v>299</v>
+      </c>
+      <c r="E47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H47" t="s">
+        <v>303</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="50" customHeight="1">
+      <c r="A48" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E48" t="s">
+        <v>307</v>
+      </c>
+      <c r="F48" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H48" t="s">
+        <v>310</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="50" customHeight="1">
+      <c r="A49" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E49" t="s">
+        <v>314</v>
+      </c>
+      <c r="F49" t="s">
+        <v>315</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H49" t="s">
+        <v>317</v>
+      </c>
+      <c r="I49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="50" customHeight="1">
+      <c r="A50" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" t="s">
+        <v>320</v>
+      </c>
+      <c r="F50" t="s">
+        <v>321</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H50" t="s">
+        <v>323</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="50" customHeight="1">
+      <c r="A51" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" t="s">
+        <v>327</v>
+      </c>
+      <c r="F51" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="50" customHeight="1">
+      <c r="A52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E52" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52" t="s">
+        <v>335</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H52" t="s">
+        <v>337</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="50" customHeight="1">
+      <c r="A53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" t="s">
+        <v>339</v>
+      </c>
+      <c r="C53" t="s">
+        <v>340</v>
+      </c>
+      <c r="E53" t="s">
+        <v>341</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H53" t="s">
+        <v>343</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="50" customHeight="1">
+      <c r="A54" t="s">
+        <v>344</v>
+      </c>
+      <c r="B54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E54" t="s">
+        <v>348</v>
+      </c>
+      <c r="F54" t="s">
+        <v>349</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H54" t="s">
+        <v>351</v>
+      </c>
+      <c r="I54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="50" customHeight="1">
+      <c r="A55" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" t="s">
+        <v>353</v>
+      </c>
+      <c r="E55" t="s">
+        <v>354</v>
+      </c>
+      <c r="F55" t="s">
+        <v>355</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H55" t="s">
+        <v>357</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="50" customHeight="1">
+      <c r="A56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" t="s">
+        <v>360</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E56" t="s">
+        <v>362</v>
+      </c>
+      <c r="F56" t="s">
+        <v>363</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H56" t="s">
+        <v>365</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="50" customHeight="1">
+      <c r="A57" t="s">
+        <v>366</v>
+      </c>
+      <c r="B57" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" t="s">
+        <v>368</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E57" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" t="s">
+        <v>372</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="50" customHeight="1">
+      <c r="A58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" t="s">
+        <v>374</v>
+      </c>
+      <c r="E58" t="s">
+        <v>375</v>
+      </c>
+      <c r="F58" t="s">
+        <v>376</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H58" t="s">
+        <v>378</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="50" customHeight="1">
+      <c r="A59" t="s">
+        <v>379</v>
+      </c>
+      <c r="B59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E59" t="s">
+        <v>382</v>
+      </c>
+      <c r="F59" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H59" t="s">
+        <v>385</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="50" customHeight="1">
+      <c r="A60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B60" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" t="s">
+        <v>388</v>
+      </c>
+      <c r="F60" t="s">
+        <v>389</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H60" t="s">
+        <v>391</v>
+      </c>
+      <c r="I60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="50" customHeight="1">
+      <c r="A61" t="s">
+        <v>392</v>
+      </c>
+      <c r="B61" t="s">
+        <v>393</v>
+      </c>
+      <c r="E61" t="s">
+        <v>394</v>
+      </c>
+      <c r="F61" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H61" t="s">
+        <v>397</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="50" customHeight="1">
+      <c r="A62" t="s">
+        <v>398</v>
+      </c>
+      <c r="B62" t="s">
+        <v>399</v>
+      </c>
+      <c r="E62" t="s">
+        <v>400</v>
+      </c>
+      <c r="F62" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H62" t="s">
+        <v>403</v>
+      </c>
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="50" customHeight="1">
+      <c r="A63" t="s">
+        <v>404</v>
+      </c>
+      <c r="B63" t="s">
+        <v>405</v>
+      </c>
+      <c r="C63" t="s">
+        <v>406</v>
+      </c>
+      <c r="E63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H63" t="s">
+        <v>410</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="50" customHeight="1">
+      <c r="A64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B64" t="s">
+        <v>412</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E64" t="s">
+        <v>414</v>
+      </c>
+      <c r="F64" t="s">
+        <v>415</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H64" t="s">
+        <v>417</v>
+      </c>
+      <c r="I64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="50" customHeight="1">
+      <c r="A65" t="s">
+        <v>418</v>
+      </c>
+      <c r="B65" t="s">
+        <v>419</v>
+      </c>
+      <c r="E65" t="s">
+        <v>420</v>
+      </c>
+      <c r="F65" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H65" t="s">
+        <v>423</v>
+      </c>
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="50" customHeight="1">
+      <c r="A66" t="s">
+        <v>424</v>
+      </c>
+      <c r="B66" t="s">
+        <v>425</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E66" t="s">
+        <v>427</v>
+      </c>
+      <c r="F66" t="s">
+        <v>428</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H66" t="s">
+        <v>430</v>
+      </c>
+      <c r="I66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="50" customHeight="1">
+      <c r="A67" t="s">
+        <v>431</v>
+      </c>
+      <c r="B67" t="s">
+        <v>432</v>
+      </c>
+      <c r="E67" t="s">
+        <v>433</v>
+      </c>
+      <c r="F67" t="s">
+        <v>434</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H67" t="s">
+        <v>436</v>
+      </c>
+      <c r="I67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="50" customHeight="1">
+      <c r="A68" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" t="s">
+        <v>438</v>
+      </c>
+      <c r="C68" t="s">
+        <v>439</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E68" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H68" t="s">
+        <v>444</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="50" customHeight="1">
+      <c r="A69" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" t="s">
+        <v>446</v>
+      </c>
+      <c r="E69" t="s">
+        <v>447</v>
+      </c>
+      <c r="F69" t="s">
+        <v>448</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H69" t="s">
+        <v>450</v>
+      </c>
+      <c r="I69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="50" customHeight="1">
+      <c r="A70" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" t="s">
+        <v>452</v>
+      </c>
+      <c r="C70" t="s">
+        <v>453</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E70" t="s">
+        <v>455</v>
+      </c>
+      <c r="F70" t="s">
+        <v>456</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H70" t="s">
+        <v>458</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="50" customHeight="1">
+      <c r="A71" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71" t="s">
+        <v>460</v>
+      </c>
+      <c r="E71" t="s">
+        <v>461</v>
+      </c>
+      <c r="F71" t="s">
+        <v>462</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H71" t="s">
+        <v>464</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="50" customHeight="1">
+      <c r="A72" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" t="s">
+        <v>466</v>
+      </c>
+      <c r="E72" t="s">
+        <v>467</v>
+      </c>
+      <c r="F72" t="s">
+        <v>468</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H72" t="s">
+        <v>470</v>
+      </c>
+      <c r="I72" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="73" spans="1:9" ht="50" customHeight="1">
+      <c r="A73" t="s">
+        <v>471</v>
+      </c>
+      <c r="B73" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" t="s">
+        <v>473</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E73" t="s">
+        <v>475</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H73" t="s">
+        <v>478</v>
+      </c>
+      <c r="I73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="50" customHeight="1">
+      <c r="A74" t="s">
+        <v>479</v>
+      </c>
+      <c r="B74" t="s">
+        <v>480</v>
+      </c>
+      <c r="E74" t="s">
+        <v>481</v>
+      </c>
+      <c r="F74" t="s">
+        <v>482</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H74" t="s">
+        <v>484</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="50" customHeight="1">
+      <c r="A75" t="s">
+        <v>485</v>
+      </c>
+      <c r="B75" t="s">
+        <v>486</v>
+      </c>
+      <c r="C75" t="s">
+        <v>487</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E75" t="s">
+        <v>489</v>
+      </c>
+      <c r="F75" t="s">
+        <v>490</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H75" t="s">
+        <v>492</v>
+      </c>
+      <c r="I75" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="76" spans="1:9" ht="50" customHeight="1">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>494</v>
+      </c>
+      <c r="E76" t="s">
+        <v>495</v>
+      </c>
+      <c r="F76" t="s">
+        <v>496</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H76" t="s">
+        <v>498</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="50" customHeight="1">
+      <c r="A77" t="s">
+        <v>499</v>
+      </c>
+      <c r="B77" t="s">
+        <v>500</v>
+      </c>
+      <c r="E77" t="s">
+        <v>501</v>
+      </c>
+      <c r="F77" t="s">
+        <v>502</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H77" t="s">
+        <v>504</v>
+      </c>
+      <c r="I77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="50" customHeight="1">
+      <c r="A78" t="s">
+        <v>505</v>
+      </c>
+      <c r="B78" t="s">
+        <v>506</v>
+      </c>
+      <c r="E78" t="s">
+        <v>507</v>
+      </c>
+      <c r="F78" t="s">
+        <v>508</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H78" t="s">
+        <v>510</v>
+      </c>
+      <c r="I78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="50" customHeight="1">
+      <c r="A79" t="s">
+        <v>511</v>
+      </c>
+      <c r="B79" t="s">
+        <v>512</v>
+      </c>
+      <c r="C79" t="s">
+        <v>473</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E79" t="s">
+        <v>382</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H79" t="s">
+        <v>514</v>
+      </c>
+      <c r="I79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="50" customHeight="1">
+      <c r="A80" t="s">
+        <v>515</v>
+      </c>
+      <c r="B80" t="s">
+        <v>516</v>
+      </c>
+      <c r="E80" t="s">
+        <v>517</v>
+      </c>
+      <c r="F80" t="s">
+        <v>518</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H80" t="s">
+        <v>520</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="50" customHeight="1">
+      <c r="A81" t="s">
+        <v>521</v>
+      </c>
+      <c r="B81" t="s">
+        <v>522</v>
+      </c>
+      <c r="C81" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="50" customHeight="1">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="50" customHeight="1">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="50" customHeight="1">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D81" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E81" t="s">
+        <v>524</v>
+      </c>
+      <c r="F81" t="s">
+        <v>525</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H81" t="s">
+        <v>527</v>
+      </c>
+      <c r="I81" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="50" customHeight="1">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="82" spans="1:9" ht="50" customHeight="1">
+      <c r="A82" t="s">
+        <v>528</v>
+      </c>
+      <c r="B82" t="s">
+        <v>529</v>
+      </c>
+      <c r="E82" t="s">
+        <v>530</v>
+      </c>
+      <c r="F82" t="s">
+        <v>531</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H82" t="s">
+        <v>533</v>
+      </c>
+      <c r="I82" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="50" customHeight="1">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="50" customHeight="1">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="50" customHeight="1">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="50" customHeight="1">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="50" customHeight="1">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="50" customHeight="1">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="50" customHeight="1">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="50" customHeight="1">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="50" customHeight="1">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="50" customHeight="1">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="50" customHeight="1">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="50" customHeight="1">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="83" spans="1:9" ht="50" customHeight="1">
+      <c r="A83" t="s">
+        <v>534</v>
+      </c>
+      <c r="B83" t="s">
+        <v>535</v>
+      </c>
+      <c r="E83" t="s">
+        <v>382</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H83" t="s">
+        <v>537</v>
+      </c>
+      <c r="I83" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="50" customHeight="1">
-      <c r="A19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="50" customHeight="1">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="50" customHeight="1">
-      <c r="A21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="50" customHeight="1">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="50" customHeight="1">
-      <c r="A23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="50" customHeight="1">
-      <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="50" customHeight="1">
-      <c r="A25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="50" customHeight="1">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="50" customHeight="1">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="50" customHeight="1">
-      <c r="A28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="50" customHeight="1">
-      <c r="A29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="50" customHeight="1">
-      <c r="A30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="84" spans="1:9" ht="50" customHeight="1">
+      <c r="A84" t="s">
+        <v>538</v>
+      </c>
+      <c r="B84" t="s">
+        <v>539</v>
+      </c>
+      <c r="E84" t="s">
+        <v>540</v>
+      </c>
+      <c r="F84" t="s">
+        <v>541</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H84" t="s">
+        <v>543</v>
+      </c>
+      <c r="I84" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="50" customHeight="1">
-      <c r="A31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="50" customHeight="1">
-      <c r="A32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" t="s">
-        <v>176</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="50" customHeight="1">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="50" customHeight="1">
-      <c r="A34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" t="s">
-        <v>186</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="50" customHeight="1">
-      <c r="A35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E35" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" t="s">
-        <v>192</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="50" customHeight="1">
-      <c r="A36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" t="s">
-        <v>199</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="50" customHeight="1">
-      <c r="A37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" t="s">
-        <v>202</v>
-      </c>
-      <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" t="s">
-        <v>204</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="50" customHeight="1">
-      <c r="A38" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" t="s">
-        <v>209</v>
-      </c>
-      <c r="F38" t="s">
-        <v>210</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="50" customHeight="1">
-      <c r="A39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" t="s">
-        <v>213</v>
-      </c>
-      <c r="F39" t="s">
-        <v>214</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="50" customHeight="1">
-      <c r="A40" t="s">
-        <v>215</v>
-      </c>
-      <c r="B40" t="s">
-        <v>216</v>
-      </c>
-      <c r="E40" t="s">
-        <v>217</v>
-      </c>
-      <c r="F40" t="s">
-        <v>218</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="50" customHeight="1">
-      <c r="A41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="50" customHeight="1">
-      <c r="A42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B42" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" t="s">
-        <v>229</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="50" customHeight="1">
-      <c r="A43" t="s">
-        <v>231</v>
-      </c>
-      <c r="B43" t="s">
-        <v>232</v>
-      </c>
-      <c r="E43" t="s">
-        <v>233</v>
-      </c>
-      <c r="F43" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="50" customHeight="1">
-      <c r="A44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B44" t="s">
-        <v>237</v>
-      </c>
-      <c r="C44" t="s">
-        <v>238</v>
-      </c>
-      <c r="E44" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" t="s">
-        <v>240</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="50" customHeight="1">
-      <c r="A45" t="s">
-        <v>242</v>
-      </c>
-      <c r="B45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E45" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="50" customHeight="1">
-      <c r="A46" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" t="s">
-        <v>251</v>
-      </c>
-      <c r="F46" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="50" customHeight="1">
-      <c r="A47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B47" t="s">
-        <v>255</v>
-      </c>
-      <c r="E47" t="s">
-        <v>256</v>
-      </c>
-      <c r="F47" t="s">
-        <v>257</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="50" customHeight="1">
-      <c r="A48" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" t="s">
-        <v>261</v>
-      </c>
-      <c r="E48" t="s">
-        <v>262</v>
-      </c>
-      <c r="F48" t="s">
-        <v>263</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="50" customHeight="1">
-      <c r="A49" t="s">
-        <v>265</v>
-      </c>
-      <c r="B49" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="85" spans="1:9" ht="50" customHeight="1">
+      <c r="A85" t="s">
+        <v>544</v>
+      </c>
+      <c r="B85" t="s">
+        <v>545</v>
+      </c>
+      <c r="C85" t="s">
+        <v>546</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E85" t="s">
+        <v>548</v>
+      </c>
+      <c r="F85" t="s">
+        <v>549</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H85" t="s">
+        <v>551</v>
+      </c>
+      <c r="I85" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E49" t="s">
-        <v>268</v>
-      </c>
-      <c r="F49" t="s">
-        <v>269</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="50" customHeight="1">
-      <c r="A50" t="s">
-        <v>271</v>
-      </c>
-      <c r="B50" t="s">
-        <v>272</v>
-      </c>
-      <c r="E50" t="s">
-        <v>273</v>
-      </c>
-      <c r="F50" t="s">
-        <v>274</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="50" customHeight="1">
-      <c r="A51" t="s">
-        <v>276</v>
-      </c>
-      <c r="B51" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" t="s">
-        <v>279</v>
-      </c>
-      <c r="F51" t="s">
-        <v>280</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="50" customHeight="1">
-      <c r="A52" t="s">
-        <v>281</v>
-      </c>
-      <c r="B52" t="s">
-        <v>282</v>
-      </c>
-      <c r="C52" t="s">
-        <v>283</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E52" t="s">
-        <v>285</v>
-      </c>
-      <c r="F52" t="s">
-        <v>286</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="50" customHeight="1">
-      <c r="A53" t="s">
-        <v>288</v>
-      </c>
-      <c r="B53" t="s">
-        <v>289</v>
-      </c>
-      <c r="C53" t="s">
-        <v>290</v>
-      </c>
-      <c r="E53" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="50" customHeight="1">
-      <c r="A54" t="s">
-        <v>293</v>
-      </c>
-      <c r="B54" t="s">
-        <v>294</v>
-      </c>
-      <c r="C54" t="s">
-        <v>295</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E54" t="s">
-        <v>297</v>
-      </c>
-      <c r="F54" t="s">
-        <v>298</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="50" customHeight="1">
-      <c r="A55" t="s">
-        <v>300</v>
-      </c>
-      <c r="B55" t="s">
-        <v>301</v>
-      </c>
-      <c r="E55" t="s">
-        <v>302</v>
-      </c>
-      <c r="F55" t="s">
-        <v>303</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="50" customHeight="1">
-      <c r="A56" t="s">
-        <v>305</v>
-      </c>
-      <c r="B56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C56" t="s">
-        <v>307</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E56" t="s">
-        <v>309</v>
-      </c>
-      <c r="F56" t="s">
-        <v>310</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="50" customHeight="1">
-      <c r="A57" t="s">
-        <v>312</v>
-      </c>
-      <c r="B57" t="s">
-        <v>313</v>
-      </c>
-      <c r="C57" t="s">
-        <v>314</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E57" t="s">
-        <v>316</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="50" customHeight="1">
-      <c r="A58" t="s">
-        <v>318</v>
-      </c>
-      <c r="B58" t="s">
-        <v>319</v>
-      </c>
-      <c r="E58" t="s">
-        <v>320</v>
-      </c>
-      <c r="F58" t="s">
-        <v>321</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="50" customHeight="1">
-      <c r="A59" t="s">
-        <v>323</v>
-      </c>
-      <c r="B59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="86" spans="1:9" ht="50" customHeight="1">
+      <c r="A86" t="s">
+        <v>552</v>
+      </c>
+      <c r="B86" t="s">
+        <v>553</v>
+      </c>
+      <c r="E86" t="s">
+        <v>554</v>
+      </c>
+      <c r="F86" t="s">
+        <v>555</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H86" t="s">
+        <v>557</v>
+      </c>
+      <c r="I86" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E59" t="s">
-        <v>326</v>
-      </c>
-      <c r="F59" t="s">
-        <v>327</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="50" customHeight="1">
-      <c r="A60" t="s">
-        <v>329</v>
-      </c>
-      <c r="B60" t="s">
-        <v>330</v>
-      </c>
-      <c r="E60" t="s">
-        <v>331</v>
-      </c>
-      <c r="F60" t="s">
-        <v>332</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="50" customHeight="1">
-      <c r="A61" t="s">
-        <v>334</v>
-      </c>
-      <c r="B61" t="s">
-        <v>335</v>
-      </c>
-      <c r="E61" t="s">
-        <v>336</v>
-      </c>
-      <c r="F61" t="s">
-        <v>337</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="50" customHeight="1">
-      <c r="A62" t="s">
-        <v>339</v>
-      </c>
-      <c r="B62" t="s">
-        <v>340</v>
-      </c>
-      <c r="E62" t="s">
-        <v>341</v>
-      </c>
-      <c r="F62" t="s">
-        <v>342</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="50" customHeight="1">
-      <c r="A63" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" t="s">
-        <v>345</v>
-      </c>
-      <c r="C63" t="s">
-        <v>346</v>
-      </c>
-      <c r="E63" t="s">
-        <v>347</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="50" customHeight="1">
-      <c r="A64" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" t="s">
-        <v>351</v>
-      </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="87" spans="1:9" ht="50" customHeight="1">
+      <c r="A87" t="s">
+        <v>558</v>
+      </c>
+      <c r="B87" t="s">
+        <v>559</v>
+      </c>
+      <c r="E87" t="s">
+        <v>560</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H87" t="s">
+        <v>562</v>
+      </c>
+      <c r="I87" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E64" t="s">
-        <v>353</v>
-      </c>
-      <c r="F64" t="s">
-        <v>354</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="50" customHeight="1">
-      <c r="A65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B65" t="s">
-        <v>357</v>
-      </c>
-      <c r="E65" t="s">
-        <v>358</v>
-      </c>
-      <c r="F65" t="s">
-        <v>359</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="50" customHeight="1">
-      <c r="A66" t="s">
-        <v>361</v>
-      </c>
-      <c r="B66" t="s">
-        <v>362</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E66" t="s">
-        <v>364</v>
-      </c>
-      <c r="F66" t="s">
-        <v>365</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="50" customHeight="1">
-      <c r="A67" t="s">
-        <v>367</v>
-      </c>
-      <c r="B67" t="s">
-        <v>368</v>
-      </c>
-      <c r="E67" t="s">
-        <v>369</v>
-      </c>
-      <c r="F67" t="s">
-        <v>370</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="50" customHeight="1">
-      <c r="A68" t="s">
-        <v>372</v>
-      </c>
-      <c r="B68" t="s">
-        <v>373</v>
-      </c>
-      <c r="C68" t="s">
-        <v>374</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E68" t="s">
-        <v>376</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="50" customHeight="1">
-      <c r="A69" t="s">
-        <v>379</v>
-      </c>
-      <c r="B69" t="s">
-        <v>380</v>
-      </c>
-      <c r="E69" t="s">
-        <v>381</v>
-      </c>
-      <c r="F69" t="s">
-        <v>382</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="50" customHeight="1">
-      <c r="A70" t="s">
-        <v>384</v>
-      </c>
-      <c r="B70" t="s">
-        <v>385</v>
-      </c>
-      <c r="C70" t="s">
-        <v>386</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E70" t="s">
-        <v>388</v>
-      </c>
-      <c r="F70" t="s">
-        <v>389</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="50" customHeight="1">
-      <c r="A71" t="s">
-        <v>391</v>
-      </c>
-      <c r="B71" t="s">
-        <v>392</v>
-      </c>
-      <c r="E71" t="s">
-        <v>393</v>
-      </c>
-      <c r="F71" t="s">
-        <v>394</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="50" customHeight="1">
-      <c r="A72" t="s">
-        <v>396</v>
-      </c>
-      <c r="B72" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" t="s">
-        <v>398</v>
-      </c>
-      <c r="F72" t="s">
-        <v>399</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="50" customHeight="1">
-      <c r="A73" t="s">
-        <v>401</v>
-      </c>
-      <c r="B73" t="s">
-        <v>402</v>
-      </c>
-      <c r="C73" t="s">
-        <v>403</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E73" t="s">
-        <v>405</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="50" customHeight="1">
-      <c r="A74" t="s">
-        <v>408</v>
-      </c>
-      <c r="B74" t="s">
-        <v>409</v>
-      </c>
-      <c r="E74" t="s">
-        <v>410</v>
-      </c>
-      <c r="F74" t="s">
-        <v>411</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="50" customHeight="1">
-      <c r="A75" t="s">
-        <v>413</v>
-      </c>
-      <c r="B75" t="s">
-        <v>414</v>
-      </c>
-      <c r="C75" t="s">
-        <v>415</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E75" t="s">
-        <v>417</v>
-      </c>
-      <c r="F75" t="s">
-        <v>418</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="50" customHeight="1">
-      <c r="A76" t="s">
-        <v>420</v>
-      </c>
-      <c r="B76" t="s">
-        <v>421</v>
-      </c>
-      <c r="E76" t="s">
-        <v>422</v>
-      </c>
-      <c r="F76" t="s">
-        <v>423</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="50" customHeight="1">
-      <c r="A77" t="s">
-        <v>425</v>
-      </c>
-      <c r="B77" t="s">
-        <v>426</v>
-      </c>
-      <c r="E77" t="s">
-        <v>427</v>
-      </c>
-      <c r="F77" t="s">
-        <v>428</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="50" customHeight="1">
-      <c r="A78" t="s">
-        <v>430</v>
-      </c>
-      <c r="B78" t="s">
-        <v>431</v>
-      </c>
-      <c r="E78" t="s">
-        <v>432</v>
-      </c>
-      <c r="F78" t="s">
-        <v>433</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="50" customHeight="1">
-      <c r="A79" t="s">
-        <v>435</v>
-      </c>
-      <c r="B79" t="s">
-        <v>436</v>
-      </c>
-      <c r="C79" t="s">
-        <v>403</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E79" t="s">
-        <v>326</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="50" customHeight="1">
-      <c r="A80" t="s">
-        <v>438</v>
-      </c>
-      <c r="B80" t="s">
-        <v>439</v>
-      </c>
-      <c r="E80" t="s">
-        <v>440</v>
-      </c>
-      <c r="F80" t="s">
-        <v>441</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="50" customHeight="1">
-      <c r="A81" t="s">
-        <v>443</v>
-      </c>
-      <c r="B81" t="s">
-        <v>444</v>
-      </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="88" spans="1:9" ht="50" customHeight="1">
+      <c r="A88" t="s">
+        <v>563</v>
+      </c>
+      <c r="B88" t="s">
+        <v>564</v>
+      </c>
+      <c r="E88" t="s">
+        <v>565</v>
+      </c>
+      <c r="F88" t="s">
+        <v>566</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H88" t="s">
+        <v>568</v>
+      </c>
+      <c r="I88" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E81" t="s">
-        <v>446</v>
-      </c>
-      <c r="F81" t="s">
-        <v>447</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="50" customHeight="1">
-      <c r="A82" t="s">
-        <v>449</v>
-      </c>
-      <c r="B82" t="s">
-        <v>450</v>
-      </c>
-      <c r="E82" t="s">
-        <v>451</v>
-      </c>
-      <c r="F82" t="s">
-        <v>452</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="50" customHeight="1">
-      <c r="A83" t="s">
-        <v>454</v>
-      </c>
-      <c r="B83" t="s">
-        <v>455</v>
-      </c>
-      <c r="E83" t="s">
-        <v>326</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="50" customHeight="1">
-      <c r="A84" t="s">
-        <v>457</v>
-      </c>
-      <c r="B84" t="s">
-        <v>458</v>
-      </c>
-      <c r="E84" t="s">
-        <v>459</v>
-      </c>
-      <c r="F84" t="s">
-        <v>460</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="50" customHeight="1">
-      <c r="A85" t="s">
-        <v>462</v>
-      </c>
-      <c r="B85" t="s">
-        <v>463</v>
-      </c>
-      <c r="C85" t="s">
-        <v>464</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E85" t="s">
-        <v>466</v>
-      </c>
-      <c r="F85" t="s">
-        <v>467</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="50" customHeight="1">
-      <c r="A86" t="s">
-        <v>469</v>
-      </c>
-      <c r="B86" t="s">
-        <v>470</v>
-      </c>
-      <c r="E86" t="s">
-        <v>471</v>
-      </c>
-      <c r="F86" t="s">
-        <v>472</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="50" customHeight="1">
-      <c r="A87" t="s">
-        <v>474</v>
-      </c>
-      <c r="B87" t="s">
-        <v>475</v>
-      </c>
-      <c r="E87" t="s">
-        <v>476</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="50" customHeight="1">
-      <c r="A88" t="s">
-        <v>478</v>
-      </c>
-      <c r="B88" t="s">
-        <v>479</v>
-      </c>
-      <c r="E88" t="s">
-        <v>480</v>
-      </c>
-      <c r="F88" t="s">
-        <v>481</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="50" customHeight="1">
+    </row>
+    <row r="89" spans="1:9" ht="50" customHeight="1">
       <c r="A89" t="s">
-        <v>483</v>
+        <v>569</v>
       </c>
       <c r="B89" t="s">
-        <v>484</v>
+        <v>570</v>
       </c>
       <c r="E89" t="s">
-        <v>485</v>
+        <v>571</v>
       </c>
       <c r="F89" t="s">
-        <v>486</v>
+        <v>572</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="50" customHeight="1">
+        <v>573</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="50" customHeight="1">
       <c r="A90" t="s">
-        <v>487</v>
+        <v>574</v>
       </c>
       <c r="B90" t="s">
-        <v>488</v>
+        <v>575</v>
       </c>
       <c r="C90" t="s">
-        <v>489</v>
+        <v>576</v>
       </c>
       <c r="E90" t="s">
-        <v>490</v>
+        <v>577</v>
       </c>
       <c r="F90" t="s">
-        <v>491</v>
+        <v>578</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>579</v>
       </c>
       <c r="H90" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="50" customHeight="1">
+        <v>580</v>
+      </c>
+      <c r="I90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="50" customHeight="1">
       <c r="A91" t="s">
-        <v>493</v>
+        <v>581</v>
       </c>
       <c r="B91" t="s">
-        <v>494</v>
+        <v>582</v>
       </c>
       <c r="E91" t="s">
-        <v>495</v>
+        <v>583</v>
       </c>
       <c r="F91" t="s">
-        <v>496</v>
+        <v>584</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>14</v>
+        <v>585</v>
       </c>
       <c r="H91" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="50" customHeight="1">
+        <v>586</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="50" customHeight="1">
       <c r="A92" t="s">
-        <v>498</v>
+        <v>587</v>
       </c>
       <c r="B92" t="s">
-        <v>499</v>
+        <v>588</v>
       </c>
       <c r="C92" t="s">
-        <v>500</v>
+        <v>589</v>
       </c>
       <c r="E92" t="s">
-        <v>501</v>
+        <v>590</v>
       </c>
       <c r="F92" t="s">
-        <v>502</v>
+        <v>591</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="50" customHeight="1">
+        <v>592</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="50" customHeight="1">
       <c r="A93" t="s">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="B93" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="E93" t="s">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="F93" t="s">
-        <v>506</v>
+        <v>596</v>
       </c>
       <c r="H93" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="50" customHeight="1">
+        <v>597</v>
+      </c>
+      <c r="I93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="50" customHeight="1">
       <c r="A94" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="B94" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="E94" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="F94" t="s">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>14</v>
+        <v>602</v>
       </c>
       <c r="H94" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="50" customHeight="1">
+        <v>603</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="50" customHeight="1">
       <c r="A95" t="s">
-        <v>513</v>
+        <v>604</v>
       </c>
       <c r="B95" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
       <c r="E95" t="s">
-        <v>515</v>
+        <v>606</v>
       </c>
       <c r="F95" t="s">
-        <v>516</v>
+        <v>607</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="50" customHeight="1">
+        <v>608</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="50" customHeight="1">
       <c r="A96" t="s">
-        <v>517</v>
+        <v>609</v>
       </c>
       <c r="B96" t="s">
-        <v>518</v>
+        <v>610</v>
       </c>
       <c r="E96" t="s">
-        <v>519</v>
+        <v>611</v>
       </c>
       <c r="F96" t="s">
-        <v>520</v>
+        <v>612</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>613</v>
       </c>
       <c r="H96" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="50" customHeight="1">
+        <v>614</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="50" customHeight="1">
       <c r="A97" t="s">
-        <v>522</v>
+        <v>615</v>
       </c>
       <c r="B97" t="s">
-        <v>523</v>
+        <v>616</v>
       </c>
       <c r="E97" t="s">
-        <v>524</v>
+        <v>617</v>
       </c>
       <c r="F97" t="s">
-        <v>525</v>
+        <v>618</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>619</v>
       </c>
       <c r="H97" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="50" customHeight="1">
+        <v>620</v>
+      </c>
+      <c r="I97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="50" customHeight="1">
       <c r="A98" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="B98" t="s">
-        <v>528</v>
+        <v>622</v>
       </c>
       <c r="E98" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
       <c r="F98" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="H98" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="50" customHeight="1">
+        <v>625</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="50" customHeight="1">
       <c r="A99" t="s">
-        <v>532</v>
+        <v>626</v>
       </c>
       <c r="B99" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="C99" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="E99" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="F99" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>14</v>
+        <v>631</v>
       </c>
       <c r="H99" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="50" customHeight="1">
+        <v>632</v>
+      </c>
+      <c r="I99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="50" customHeight="1">
       <c r="A100" t="s">
-        <v>538</v>
+        <v>633</v>
       </c>
       <c r="B100" t="s">
-        <v>539</v>
+        <v>634</v>
       </c>
       <c r="E100" t="s">
-        <v>540</v>
+        <v>635</v>
       </c>
       <c r="F100" t="s">
-        <v>541</v>
+        <v>636</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>637</v>
       </c>
       <c r="H100" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="50" customHeight="1">
+        <v>638</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="50" customHeight="1">
       <c r="A101" t="s">
-        <v>543</v>
+        <v>639</v>
       </c>
       <c r="B101" t="s">
-        <v>544</v>
+        <v>640</v>
       </c>
       <c r="C101" t="s">
-        <v>545</v>
+        <v>641</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>546</v>
+        <v>642</v>
       </c>
       <c r="E101" t="s">
-        <v>547</v>
+        <v>643</v>
       </c>
       <c r="F101" t="s">
-        <v>548</v>
+        <v>644</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>14</v>
+        <v>645</v>
       </c>
       <c r="H101" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="50" customHeight="1">
+        <v>646</v>
+      </c>
+      <c r="I101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="50" customHeight="1">
       <c r="A102" t="s">
-        <v>550</v>
+        <v>647</v>
       </c>
       <c r="B102" t="s">
-        <v>551</v>
+        <v>648</v>
       </c>
       <c r="E102" t="s">
-        <v>552</v>
+        <v>649</v>
       </c>
       <c r="F102" t="s">
-        <v>553</v>
+        <v>650</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="50" customHeight="1">
+        <v>651</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="50" customHeight="1">
       <c r="A103" t="s">
-        <v>554</v>
+        <v>652</v>
       </c>
       <c r="B103" t="s">
-        <v>555</v>
+        <v>653</v>
       </c>
       <c r="E103" t="s">
-        <v>556</v>
+        <v>654</v>
       </c>
       <c r="F103" t="s">
-        <v>557</v>
+        <v>655</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>14</v>
+        <v>656</v>
       </c>
       <c r="H103" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="50" customHeight="1">
+        <v>657</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="50" customHeight="1">
       <c r="A104" t="s">
-        <v>559</v>
+        <v>658</v>
       </c>
       <c r="B104" t="s">
-        <v>560</v>
+        <v>659</v>
       </c>
       <c r="C104" t="s">
-        <v>561</v>
+        <v>660</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>562</v>
+        <v>661</v>
       </c>
       <c r="E104" t="s">
-        <v>563</v>
+        <v>662</v>
       </c>
       <c r="F104" t="s">
-        <v>564</v>
+        <v>663</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>14</v>
+        <v>664</v>
       </c>
       <c r="H104" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="50" customHeight="1">
+        <v>665</v>
+      </c>
+      <c r="I104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="50" customHeight="1">
       <c r="A105" t="s">
-        <v>566</v>
+        <v>666</v>
       </c>
       <c r="B105" t="s">
-        <v>567</v>
+        <v>667</v>
       </c>
       <c r="E105" t="s">
-        <v>568</v>
+        <v>668</v>
       </c>
       <c r="F105" t="s">
-        <v>569</v>
+        <v>669</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>14</v>
+        <v>670</v>
       </c>
       <c r="H105" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="50" customHeight="1">
+        <v>671</v>
+      </c>
+      <c r="I105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="50" customHeight="1">
       <c r="A106" t="s">
-        <v>571</v>
+        <v>672</v>
       </c>
       <c r="B106" t="s">
-        <v>572</v>
+        <v>673</v>
       </c>
       <c r="C106" t="s">
-        <v>573</v>
+        <v>674</v>
       </c>
       <c r="E106" t="s">
-        <v>574</v>
+        <v>675</v>
       </c>
       <c r="F106" t="s">
-        <v>575</v>
+        <v>676</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>14</v>
+        <v>677</v>
       </c>
       <c r="H106" t="s">
-        <v>576</v>
+        <v>678</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/loerrach.xlsx
+++ b/loerrach.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Bewerbungen\2018\DHBW_Studienplatz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="679">
   <si>
     <t>Firmenname</t>
   </si>
@@ -43,12 +48,21 @@
     <t>noch freie Plätze</t>
   </si>
   <si>
+    <t>large_green</t>
+  </si>
+  <si>
     <t>möglicherweise noch freie Plätze</t>
   </si>
   <si>
+    <t>large_yellow</t>
+  </si>
+  <si>
     <t>alle Plätze belegt</t>
   </si>
   <si>
+    <t>large_red</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abrechnungszentrum Emmendingen </t>
   </si>
   <si>
@@ -466,9 +480,6 @@
     <t>http://www.emi.fraunhofer.de</t>
   </si>
   <si>
-    <t>www.emi.fraunhofer.de</t>
-  </si>
-  <si>
     <t>+49 761 2714-100</t>
   </si>
   <si>
@@ -1243,9 +1254,6 @@
     <t>http://www.syngentajob.ch</t>
   </si>
   <si>
-    <t>www.syngentajob.ch</t>
-  </si>
-  <si>
     <t>+41 61 323 54 18</t>
   </si>
   <si>
@@ -1345,9 +1353,6 @@
     <t>http://www.herzzentrum.de</t>
   </si>
   <si>
-    <t>www.herzzentrum.de</t>
-  </si>
-  <si>
     <t>+49 7633 402-7250</t>
   </si>
   <si>
@@ -1447,9 +1452,6 @@
     <t>http://www.coresystems.net</t>
   </si>
   <si>
-    <t>www.coresystems.net</t>
-  </si>
-  <si>
     <t>+41 56 500 22 25</t>
   </si>
   <si>
@@ -2051,13 +2053,16 @@
   </si>
   <si>
     <t>+49 7621 966 743</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,21 +2102,34 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2153,7 +2171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2185,9 +2203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2219,6 +2255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2394,2600 +2448,2917 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="40.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="50" customHeight="1">
-      <c r="A2" t="s">
+      <c r="J72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="73" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="76" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="50" customHeight="1">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="50" customHeight="1">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="50" customHeight="1">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D81" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="50" customHeight="1">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="82" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="50" customHeight="1">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="50" customHeight="1">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="50" customHeight="1">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="50" customHeight="1">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="50" customHeight="1">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="50" customHeight="1">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="50" customHeight="1">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="50" customHeight="1">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="50" customHeight="1">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="50" customHeight="1">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="50" customHeight="1">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="50" customHeight="1">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="83" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="50" customHeight="1">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="50" customHeight="1">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="50" customHeight="1">
-      <c r="A21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="50" customHeight="1">
-      <c r="A22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="50" customHeight="1">
-      <c r="A23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="50" customHeight="1">
-      <c r="A24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="50" customHeight="1">
-      <c r="A25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="50" customHeight="1">
-      <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="50" customHeight="1">
-      <c r="A27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F27" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="50" customHeight="1">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" t="s">
-        <v>182</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="50" customHeight="1">
-      <c r="A29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H29" t="s">
-        <v>188</v>
-      </c>
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="50" customHeight="1">
-      <c r="A30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="84" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" t="s">
-        <v>195</v>
-      </c>
-      <c r="I30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="50" customHeight="1">
-      <c r="A31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" t="s">
-        <v>200</v>
-      </c>
-      <c r="F31" t="s">
-        <v>201</v>
-      </c>
-      <c r="I31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="50" customHeight="1">
-      <c r="A32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" t="s">
-        <v>207</v>
-      </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="50" customHeight="1">
-      <c r="A33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" t="s">
-        <v>211</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H33" t="s">
-        <v>213</v>
-      </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="50" customHeight="1">
-      <c r="A34" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" t="s">
-        <v>215</v>
-      </c>
-      <c r="E34" t="s">
-        <v>216</v>
-      </c>
-      <c r="F34" t="s">
-        <v>217</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H34" t="s">
-        <v>219</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="50" customHeight="1">
-      <c r="A35" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" t="s">
-        <v>224</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="50" customHeight="1">
-      <c r="A36" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" t="s">
-        <v>232</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H36" t="s">
-        <v>234</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="50" customHeight="1">
-      <c r="A37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H37" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="50" customHeight="1">
-      <c r="A38" t="s">
-        <v>241</v>
-      </c>
-      <c r="B38" t="s">
-        <v>242</v>
-      </c>
-      <c r="C38" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" t="s">
-        <v>245</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="50" customHeight="1">
-      <c r="A39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B39" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" t="s">
-        <v>249</v>
-      </c>
-      <c r="F39" t="s">
-        <v>250</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="50" customHeight="1">
-      <c r="A40" t="s">
-        <v>252</v>
-      </c>
-      <c r="B40" t="s">
-        <v>253</v>
-      </c>
-      <c r="E40" t="s">
-        <v>254</v>
-      </c>
-      <c r="F40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H40" t="s">
-        <v>257</v>
-      </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="50" customHeight="1">
-      <c r="A41" t="s">
-        <v>258</v>
-      </c>
-      <c r="B41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E41" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" t="s">
-        <v>262</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H41" t="s">
-        <v>264</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="50" customHeight="1">
-      <c r="A42" t="s">
-        <v>265</v>
-      </c>
-      <c r="B42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F42" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H42" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="50" customHeight="1">
-      <c r="A43" t="s">
-        <v>271</v>
-      </c>
-      <c r="B43" t="s">
-        <v>272</v>
-      </c>
-      <c r="E43" t="s">
-        <v>273</v>
-      </c>
-      <c r="F43" t="s">
-        <v>274</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H43" t="s">
-        <v>276</v>
-      </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="50" customHeight="1">
-      <c r="A44" t="s">
-        <v>277</v>
-      </c>
-      <c r="B44" t="s">
-        <v>278</v>
-      </c>
-      <c r="C44" t="s">
-        <v>279</v>
-      </c>
-      <c r="E44" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44" t="s">
-        <v>281</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" t="s">
-        <v>283</v>
-      </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="50" customHeight="1">
-      <c r="A45" t="s">
-        <v>284</v>
-      </c>
-      <c r="B45" t="s">
-        <v>285</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E45" t="s">
-        <v>287</v>
-      </c>
-      <c r="F45" t="s">
-        <v>288</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="50" customHeight="1">
-      <c r="A46" t="s">
-        <v>291</v>
-      </c>
-      <c r="B46" t="s">
-        <v>292</v>
-      </c>
-      <c r="C46" t="s">
-        <v>293</v>
-      </c>
-      <c r="E46" t="s">
-        <v>294</v>
-      </c>
-      <c r="F46" t="s">
-        <v>295</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H46" t="s">
-        <v>297</v>
-      </c>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="50" customHeight="1">
-      <c r="A47" t="s">
-        <v>298</v>
-      </c>
-      <c r="B47" t="s">
-        <v>299</v>
-      </c>
-      <c r="E47" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" t="s">
-        <v>301</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H47" t="s">
-        <v>303</v>
-      </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="50" customHeight="1">
-      <c r="A48" t="s">
-        <v>304</v>
-      </c>
-      <c r="B48" t="s">
-        <v>305</v>
-      </c>
-      <c r="C48" t="s">
-        <v>306</v>
-      </c>
-      <c r="E48" t="s">
-        <v>307</v>
-      </c>
-      <c r="F48" t="s">
-        <v>308</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H48" t="s">
-        <v>310</v>
-      </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="50" customHeight="1">
-      <c r="A49" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" t="s">
-        <v>312</v>
-      </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="85" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E49" t="s">
-        <v>314</v>
-      </c>
-      <c r="F49" t="s">
-        <v>315</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H49" t="s">
-        <v>317</v>
-      </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="50" customHeight="1">
-      <c r="A50" t="s">
-        <v>318</v>
-      </c>
-      <c r="B50" t="s">
-        <v>319</v>
-      </c>
-      <c r="E50" t="s">
-        <v>320</v>
-      </c>
-      <c r="F50" t="s">
-        <v>321</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H50" t="s">
-        <v>323</v>
-      </c>
-      <c r="I50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="50" customHeight="1">
-      <c r="A51" t="s">
-        <v>324</v>
-      </c>
-      <c r="B51" t="s">
-        <v>325</v>
-      </c>
-      <c r="C51" t="s">
-        <v>326</v>
-      </c>
-      <c r="E51" t="s">
-        <v>327</v>
-      </c>
-      <c r="F51" t="s">
-        <v>328</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="50" customHeight="1">
-      <c r="A52" t="s">
-        <v>330</v>
-      </c>
-      <c r="B52" t="s">
-        <v>331</v>
-      </c>
-      <c r="C52" t="s">
-        <v>332</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E52" t="s">
-        <v>334</v>
-      </c>
-      <c r="F52" t="s">
-        <v>335</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H52" t="s">
-        <v>337</v>
-      </c>
-      <c r="I52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="50" customHeight="1">
-      <c r="A53" t="s">
-        <v>338</v>
-      </c>
-      <c r="B53" t="s">
-        <v>339</v>
-      </c>
-      <c r="C53" t="s">
-        <v>340</v>
-      </c>
-      <c r="E53" t="s">
-        <v>341</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H53" t="s">
-        <v>343</v>
-      </c>
-      <c r="I53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="50" customHeight="1">
-      <c r="A54" t="s">
-        <v>344</v>
-      </c>
-      <c r="B54" t="s">
-        <v>345</v>
-      </c>
-      <c r="C54" t="s">
-        <v>346</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E54" t="s">
-        <v>348</v>
-      </c>
-      <c r="F54" t="s">
-        <v>349</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H54" t="s">
-        <v>351</v>
-      </c>
-      <c r="I54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="50" customHeight="1">
-      <c r="A55" t="s">
-        <v>352</v>
-      </c>
-      <c r="B55" t="s">
-        <v>353</v>
-      </c>
-      <c r="E55" t="s">
-        <v>354</v>
-      </c>
-      <c r="F55" t="s">
-        <v>355</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H55" t="s">
-        <v>357</v>
-      </c>
-      <c r="I55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="50" customHeight="1">
-      <c r="A56" t="s">
-        <v>358</v>
-      </c>
-      <c r="B56" t="s">
-        <v>359</v>
-      </c>
-      <c r="C56" t="s">
-        <v>360</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E56" t="s">
-        <v>362</v>
-      </c>
-      <c r="F56" t="s">
-        <v>363</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H56" t="s">
-        <v>365</v>
-      </c>
-      <c r="I56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="50" customHeight="1">
-      <c r="A57" t="s">
-        <v>366</v>
-      </c>
-      <c r="B57" t="s">
-        <v>367</v>
-      </c>
-      <c r="C57" t="s">
-        <v>368</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E57" t="s">
-        <v>370</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H57" t="s">
-        <v>372</v>
-      </c>
-      <c r="I57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="50" customHeight="1">
-      <c r="A58" t="s">
-        <v>373</v>
-      </c>
-      <c r="B58" t="s">
-        <v>374</v>
-      </c>
-      <c r="E58" t="s">
-        <v>375</v>
-      </c>
-      <c r="F58" t="s">
-        <v>376</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H58" t="s">
-        <v>378</v>
-      </c>
-      <c r="I58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="50" customHeight="1">
-      <c r="A59" t="s">
-        <v>379</v>
-      </c>
-      <c r="B59" t="s">
-        <v>380</v>
-      </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="86" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E59" t="s">
-        <v>382</v>
-      </c>
-      <c r="F59" t="s">
-        <v>383</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H59" t="s">
-        <v>385</v>
-      </c>
-      <c r="I59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="50" customHeight="1">
-      <c r="A60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B60" t="s">
-        <v>387</v>
-      </c>
-      <c r="E60" t="s">
-        <v>388</v>
-      </c>
-      <c r="F60" t="s">
-        <v>389</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H60" t="s">
-        <v>391</v>
-      </c>
-      <c r="I60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="50" customHeight="1">
-      <c r="A61" t="s">
-        <v>392</v>
-      </c>
-      <c r="B61" t="s">
-        <v>393</v>
-      </c>
-      <c r="E61" t="s">
-        <v>394</v>
-      </c>
-      <c r="F61" t="s">
-        <v>395</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H61" t="s">
-        <v>397</v>
-      </c>
-      <c r="I61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="50" customHeight="1">
-      <c r="A62" t="s">
-        <v>398</v>
-      </c>
-      <c r="B62" t="s">
-        <v>399</v>
-      </c>
-      <c r="E62" t="s">
-        <v>400</v>
-      </c>
-      <c r="F62" t="s">
-        <v>401</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H62" t="s">
-        <v>403</v>
-      </c>
-      <c r="I62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="50" customHeight="1">
-      <c r="A63" t="s">
-        <v>404</v>
-      </c>
-      <c r="B63" t="s">
-        <v>405</v>
-      </c>
-      <c r="C63" t="s">
-        <v>406</v>
-      </c>
-      <c r="E63" t="s">
-        <v>407</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H63" t="s">
-        <v>410</v>
-      </c>
-      <c r="I63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="50" customHeight="1">
-      <c r="A64" t="s">
-        <v>411</v>
-      </c>
-      <c r="B64" t="s">
-        <v>412</v>
-      </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="87" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E64" t="s">
-        <v>414</v>
-      </c>
-      <c r="F64" t="s">
-        <v>415</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H64" t="s">
-        <v>417</v>
-      </c>
-      <c r="I64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="50" customHeight="1">
-      <c r="A65" t="s">
-        <v>418</v>
-      </c>
-      <c r="B65" t="s">
-        <v>419</v>
-      </c>
-      <c r="E65" t="s">
-        <v>420</v>
-      </c>
-      <c r="F65" t="s">
-        <v>421</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="H65" t="s">
-        <v>423</v>
-      </c>
-      <c r="I65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="50" customHeight="1">
-      <c r="A66" t="s">
-        <v>424</v>
-      </c>
-      <c r="B66" t="s">
-        <v>425</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E66" t="s">
-        <v>427</v>
-      </c>
-      <c r="F66" t="s">
-        <v>428</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H66" t="s">
-        <v>430</v>
-      </c>
-      <c r="I66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="50" customHeight="1">
-      <c r="A67" t="s">
-        <v>431</v>
-      </c>
-      <c r="B67" t="s">
-        <v>432</v>
-      </c>
-      <c r="E67" t="s">
-        <v>433</v>
-      </c>
-      <c r="F67" t="s">
-        <v>434</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H67" t="s">
-        <v>436</v>
-      </c>
-      <c r="I67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="50" customHeight="1">
-      <c r="A68" t="s">
-        <v>437</v>
-      </c>
-      <c r="B68" t="s">
-        <v>438</v>
-      </c>
-      <c r="C68" t="s">
-        <v>439</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E68" t="s">
-        <v>441</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H68" t="s">
-        <v>444</v>
-      </c>
-      <c r="I68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="50" customHeight="1">
-      <c r="A69" t="s">
-        <v>445</v>
-      </c>
-      <c r="B69" t="s">
-        <v>446</v>
-      </c>
-      <c r="E69" t="s">
-        <v>447</v>
-      </c>
-      <c r="F69" t="s">
-        <v>448</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="H69" t="s">
-        <v>450</v>
-      </c>
-      <c r="I69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="50" customHeight="1">
-      <c r="A70" t="s">
-        <v>451</v>
-      </c>
-      <c r="B70" t="s">
-        <v>452</v>
-      </c>
-      <c r="C70" t="s">
-        <v>453</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="E70" t="s">
-        <v>455</v>
-      </c>
-      <c r="F70" t="s">
-        <v>456</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="H70" t="s">
-        <v>458</v>
-      </c>
-      <c r="I70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="50" customHeight="1">
-      <c r="A71" t="s">
-        <v>459</v>
-      </c>
-      <c r="B71" t="s">
-        <v>460</v>
-      </c>
-      <c r="E71" t="s">
-        <v>461</v>
-      </c>
-      <c r="F71" t="s">
-        <v>462</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="H71" t="s">
-        <v>464</v>
-      </c>
-      <c r="I71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="50" customHeight="1">
-      <c r="A72" t="s">
-        <v>465</v>
-      </c>
-      <c r="B72" t="s">
-        <v>466</v>
-      </c>
-      <c r="E72" t="s">
-        <v>467</v>
-      </c>
-      <c r="F72" t="s">
-        <v>468</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H72" t="s">
-        <v>470</v>
-      </c>
-      <c r="I72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="50" customHeight="1">
-      <c r="A73" t="s">
-        <v>471</v>
-      </c>
-      <c r="B73" t="s">
-        <v>472</v>
-      </c>
-      <c r="C73" t="s">
-        <v>473</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E73" t="s">
-        <v>475</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H73" t="s">
-        <v>478</v>
-      </c>
-      <c r="I73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="50" customHeight="1">
-      <c r="A74" t="s">
-        <v>479</v>
-      </c>
-      <c r="B74" t="s">
-        <v>480</v>
-      </c>
-      <c r="E74" t="s">
-        <v>481</v>
-      </c>
-      <c r="F74" t="s">
-        <v>482</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H74" t="s">
-        <v>484</v>
-      </c>
-      <c r="I74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="50" customHeight="1">
-      <c r="A75" t="s">
-        <v>485</v>
-      </c>
-      <c r="B75" t="s">
-        <v>486</v>
-      </c>
-      <c r="C75" t="s">
-        <v>487</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E75" t="s">
-        <v>489</v>
-      </c>
-      <c r="F75" t="s">
-        <v>490</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H75" t="s">
-        <v>492</v>
-      </c>
-      <c r="I75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="50" customHeight="1">
-      <c r="A76" t="s">
-        <v>493</v>
-      </c>
-      <c r="B76" t="s">
-        <v>494</v>
-      </c>
-      <c r="E76" t="s">
-        <v>495</v>
-      </c>
-      <c r="F76" t="s">
-        <v>496</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H76" t="s">
-        <v>498</v>
-      </c>
-      <c r="I76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="50" customHeight="1">
-      <c r="A77" t="s">
-        <v>499</v>
-      </c>
-      <c r="B77" t="s">
-        <v>500</v>
-      </c>
-      <c r="E77" t="s">
-        <v>501</v>
-      </c>
-      <c r="F77" t="s">
-        <v>502</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H77" t="s">
-        <v>504</v>
-      </c>
-      <c r="I77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="50" customHeight="1">
-      <c r="A78" t="s">
-        <v>505</v>
-      </c>
-      <c r="B78" t="s">
-        <v>506</v>
-      </c>
-      <c r="E78" t="s">
-        <v>507</v>
-      </c>
-      <c r="F78" t="s">
-        <v>508</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="H78" t="s">
-        <v>510</v>
-      </c>
-      <c r="I78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="50" customHeight="1">
-      <c r="A79" t="s">
-        <v>511</v>
-      </c>
-      <c r="B79" t="s">
-        <v>512</v>
-      </c>
-      <c r="C79" t="s">
-        <v>473</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E79" t="s">
-        <v>382</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H79" t="s">
-        <v>514</v>
-      </c>
-      <c r="I79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="50" customHeight="1">
-      <c r="A80" t="s">
-        <v>515</v>
-      </c>
-      <c r="B80" t="s">
-        <v>516</v>
-      </c>
-      <c r="E80" t="s">
-        <v>517</v>
-      </c>
-      <c r="F80" t="s">
-        <v>518</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H80" t="s">
-        <v>520</v>
-      </c>
-      <c r="I80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" t="s">
-        <v>521</v>
-      </c>
-      <c r="B81" t="s">
-        <v>522</v>
-      </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="88" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E81" t="s">
-        <v>524</v>
-      </c>
-      <c r="F81" t="s">
-        <v>525</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H81" t="s">
-        <v>527</v>
-      </c>
-      <c r="I81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" t="s">
-        <v>528</v>
-      </c>
-      <c r="B82" t="s">
-        <v>529</v>
-      </c>
-      <c r="E82" t="s">
-        <v>530</v>
-      </c>
-      <c r="F82" t="s">
-        <v>531</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H82" t="s">
-        <v>533</v>
-      </c>
-      <c r="I82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" t="s">
-        <v>534</v>
-      </c>
-      <c r="B83" t="s">
-        <v>535</v>
-      </c>
-      <c r="E83" t="s">
-        <v>382</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H83" t="s">
-        <v>537</v>
-      </c>
-      <c r="I83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" t="s">
-        <v>538</v>
-      </c>
-      <c r="B84" t="s">
-        <v>539</v>
-      </c>
-      <c r="E84" t="s">
-        <v>540</v>
-      </c>
-      <c r="F84" t="s">
-        <v>541</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H84" t="s">
-        <v>543</v>
-      </c>
-      <c r="I84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" t="s">
-        <v>544</v>
-      </c>
-      <c r="B85" t="s">
-        <v>545</v>
-      </c>
-      <c r="C85" t="s">
-        <v>546</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E85" t="s">
-        <v>548</v>
-      </c>
-      <c r="F85" t="s">
-        <v>549</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="H85" t="s">
-        <v>551</v>
-      </c>
-      <c r="I85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" t="s">
-        <v>552</v>
-      </c>
-      <c r="B86" t="s">
-        <v>553</v>
-      </c>
-      <c r="E86" t="s">
-        <v>554</v>
-      </c>
-      <c r="F86" t="s">
-        <v>555</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H86" t="s">
-        <v>557</v>
-      </c>
-      <c r="I86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" t="s">
-        <v>558</v>
-      </c>
-      <c r="B87" t="s">
-        <v>559</v>
-      </c>
-      <c r="E87" t="s">
-        <v>560</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="H87" t="s">
-        <v>562</v>
-      </c>
-      <c r="I87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" t="s">
-        <v>563</v>
-      </c>
-      <c r="B88" t="s">
-        <v>564</v>
-      </c>
-      <c r="E88" t="s">
-        <v>565</v>
-      </c>
-      <c r="F88" t="s">
-        <v>566</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="H88" t="s">
+    </row>
+    <row r="89" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="I88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" t="s">
+      <c r="B89" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="I89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" t="s">
+      <c r="B90" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="I90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" t="s">
+      <c r="B91" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B91" t="s">
+      <c r="E91" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="I91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" t="s">
+      <c r="B92" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="I92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="I92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" t="s">
+      <c r="B93" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E93" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F93" t="s">
+      <c r="H93" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="I93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" t="s">
+      <c r="B94" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B94" t="s">
+      <c r="E94" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="I94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" t="s">
+      <c r="B95" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E95" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="I95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="I95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" t="s">
+      <c r="B96" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="I96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="50" customHeight="1">
-      <c r="A97" t="s">
+      <c r="B97" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B97" t="s">
+      <c r="E97" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="I97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="50" customHeight="1">
-      <c r="A98" t="s">
+      <c r="B98" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B98" t="s">
+      <c r="E98" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F98" t="s">
+      <c r="H98" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="I98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="50" customHeight="1">
-      <c r="A99" t="s">
+      <c r="B99" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C99" t="s">
+      <c r="E99" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="I99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="50" customHeight="1">
-      <c r="A100" t="s">
+      <c r="B100" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E100" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="I100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="50" customHeight="1">
-      <c r="A101" t="s">
+      <c r="B101" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="I101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="50" customHeight="1">
-      <c r="A102" t="s">
+      <c r="B102" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B102" t="s">
+      <c r="E102" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="I102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="I102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="50" customHeight="1">
-      <c r="A103" t="s">
+      <c r="B103" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B103" t="s">
+      <c r="E103" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="I103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="50" customHeight="1">
-      <c r="A104" t="s">
+      <c r="B104" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="I104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="50" customHeight="1">
-      <c r="A105" t="s">
+      <c r="B105" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B105" t="s">
+      <c r="E105" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="I105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="50" customHeight="1">
-      <c r="A106" t="s">
+      <c r="B106" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E106" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="H106" t="s">
-        <v>678</v>
-      </c>
-      <c r="I106" t="s">
-        <v>10</v>
+      <c r="I106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/loerrach.xlsx
+++ b/loerrach.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Bewerbungen\2018\DHBW_Studienplatz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="768">
   <si>
     <t>Firmenname</t>
   </si>
@@ -45,24 +45,18 @@
     <t>Telefonnummer</t>
   </si>
   <si>
+    <t>Kununu Seite</t>
+  </si>
+  <si>
     <t>noch freie Plätze</t>
   </si>
   <si>
-    <t>large_green</t>
-  </si>
-  <si>
     <t>möglicherweise noch freie Plätze</t>
   </si>
   <si>
-    <t>large_yellow</t>
-  </si>
-  <si>
     <t>alle Plätze belegt</t>
   </si>
   <si>
-    <t>large_red</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abrechnungszentrum Emmendingen </t>
   </si>
   <si>
@@ -87,6 +81,9 @@
     <t>+49 7641 9201-117</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/abrechnungszentrum-emmendingen2/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">abtis GmbH </t>
   </si>
   <si>
@@ -99,6 +96,9 @@
     <t>Frau Viktoria Schlager</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/abtis2/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKG Software Consulting GmbH </t>
   </si>
   <si>
@@ -123,6 +123,9 @@
     <t>+49 7634 5612-0</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/akg-software-consulting1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Allgeier Enterprise Services AG </t>
   </si>
   <si>
@@ -138,6 +141,9 @@
     <t>http://www.allgeier.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/allgeier-es/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aluminium-Werke Wutöschingen AG &amp; Co. KG </t>
   </si>
   <si>
@@ -180,6 +186,9 @@
     <t>+49 7622 3903 415</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/auto-kabel-management/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">badenIT GmbH </t>
   </si>
   <si>
@@ -204,6 +213,9 @@
     <t>+49 761 5035-2441</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/badenit1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Basler Versicherung AG </t>
   </si>
   <si>
@@ -225,6 +237,9 @@
     <t>http://www.baloise.ch</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/basler-versicherung/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bechtle GmbH IT-Systemhaus Freiburg </t>
   </si>
   <si>
@@ -240,6 +255,9 @@
     <t>www.bechtle.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/bechtle/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">BodyTel Europe GmbH </t>
   </si>
   <si>
@@ -255,6 +273,9 @@
     <t>http://www.bodytel.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/bodytel-europe/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bucher Hydraulics GmbH </t>
   </si>
   <si>
@@ -273,6 +294,9 @@
     <t>+49 7742 852-371</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Bucher%20Hydraulics%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CG Car-Garantie Versicherungs-AG </t>
   </si>
   <si>
@@ -294,6 +318,9 @@
     <t>www.cargarantie.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/cg-car-garantie-versicherungs/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLC Unternehmensberatung für Logistik GmbH </t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>+41 79 459 53 83</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/coop/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">dbi Services SA </t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>dhu@dbi-services.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=dbi%20Services%20SA%20&amp;country=COUNTRY_CH</t>
+  </si>
+  <si>
     <t xml:space="preserve">Definition 12 GmbH </t>
   </si>
   <si>
@@ -366,6 +399,9 @@
     <t>+41 61 4112525</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/definition12/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">DigitalPatrioten AG </t>
   </si>
   <si>
@@ -387,6 +423,9 @@
     <t>+49 761 458 944 16</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=DigitalPatrioten%20AG%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dunkermotoren GmbH </t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>+49 7703 930-417</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/dunkermotoren/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energiedienst AG </t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>+49 7763 81-2552</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/energiedienst-holding/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Flex-Air GmbH </t>
   </si>
   <si>
@@ -444,6 +489,9 @@
     <t>+49 7627 922033</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/fair-und-flex/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraunhofer-Institut für Solare Energiesysteme ISE </t>
   </si>
   <si>
@@ -501,6 +549,9 @@
     <t>+49 7622 68846-139</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/global-safety-textiles/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRENKE AG </t>
   </si>
   <si>
@@ -525,6 +576,9 @@
     <t>+49 7221 5007-170</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/grenke-ag/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haufe-Lexware GmbH &amp; Co. KG </t>
   </si>
   <si>
@@ -540,6 +594,9 @@
     <t>http://www.haufe-lexware.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/haufegroup/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hecht Contactlinsen GmbH </t>
   </si>
   <si>
@@ -555,6 +612,9 @@
     <t>http://www.hecht-contactlinsen.de</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Hecht%20Contactlinsen%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hectronic GmbH </t>
   </si>
   <si>
@@ -576,6 +636,9 @@
     <t>+49 7703 9388-7388</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/hectronic/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hella Gutmann Solutions GmbH </t>
   </si>
   <si>
@@ -594,6 +657,9 @@
     <t>+49 7668 9900 1861</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/hella-gutmann-solutions/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">highQ Computerlösungen GmbH </t>
   </si>
   <si>
@@ -633,6 +699,9 @@
     <t>bewerbung@hochrheinnet.de</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=hochrheinNET%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBITECH AG </t>
   </si>
   <si>
@@ -651,6 +720,9 @@
     <t>+41 61 46575-17</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/ibitech1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">innobit ag </t>
   </si>
   <si>
@@ -669,6 +741,9 @@
     <t>+41 61 695 98 00</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/innobit1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jet Aviation AG </t>
   </si>
   <si>
@@ -687,6 +762,9 @@
     <t>+41 58 1584762</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/jet-aviation/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kaltenbach GmbH + Co. KG </t>
   </si>
   <si>
@@ -708,6 +786,9 @@
     <t>+49 7621 175-255</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/farbtex-kaltenbach-amp-maier-u/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kommunale Informationsverarbeitung Baden-Fran </t>
   </si>
   <si>
@@ -732,6 +813,9 @@
     <t>+49 7131 958 161</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Kommunale%20Informationsverarbeitung%20Baden-Fran%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Landratsamt Lörrach Personalamt </t>
   </si>
   <si>
@@ -768,6 +852,9 @@
     <t>http://www.jobrad.org</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/leaserad3/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leitwerk AG Niederlassung Freiburg </t>
   </si>
   <si>
@@ -783,6 +870,9 @@
     <t>http://www.leitwerk.de</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Leitwerk%20AG%20Niederlassung%20Freiburg%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liebensteiner Kartonagenwerk GmbH </t>
   </si>
   <si>
@@ -801,6 +891,9 @@
     <t>+49 9631 605-105</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/liebensteiner-kartonagenwerk/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">m-tec mathis technik gmbh </t>
   </si>
   <si>
@@ -822,6 +915,9 @@
     <t>+49 7631 709-130</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/m-tec-mathis-technik/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magnolia International AG </t>
   </si>
   <si>
@@ -840,6 +936,9 @@
     <t>+41 61 228 90 05</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Magnolia%20International%20AG%20&amp;country=COUNTRY_CH</t>
+  </si>
+  <si>
     <t xml:space="preserve">MediaNet GmbH </t>
   </si>
   <si>
@@ -858,6 +957,9 @@
     <t>0761 496 -1400</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/elite-medianet/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meteoblue AG </t>
   </si>
   <si>
@@ -879,6 +981,9 @@
     <t>+41 61 5353301</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/meteoblue/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIMOT GmbH </t>
   </si>
   <si>
@@ -900,6 +1005,9 @@
     <t>+49 7621 9578-20</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=MIMOT%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">MothersonSumi INfotekk and Design GmbH </t>
   </si>
   <si>
@@ -921,6 +1029,9 @@
     <t>+49 6051 91524-66</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=MothersonSumi%20INfotekk%20and%20Design%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nimius GmbH Agentur für Kommunikation </t>
   </si>
   <si>
@@ -960,6 +1071,9 @@
     <t>+49 761 36889-267</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/oxid-esales1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Penta-Electric AG </t>
   </si>
   <si>
@@ -981,6 +1095,9 @@
     <t>+41 61 4163636</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/penta-electric/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pharmatronic AG </t>
   </si>
   <si>
@@ -999,6 +1116,9 @@
     <t>+41 61 8269726</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/pharmatronic/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">ppedv ag </t>
   </si>
   <si>
@@ -1017,6 +1137,9 @@
     <t>http://www.ppedv.de</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/ppedv-dach/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">PricewaterhouseCoopers AG </t>
   </si>
   <si>
@@ -1041,6 +1164,9 @@
     <t>+41 58 792 51 49</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/pricewaterhousecoopers/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reservix GmbH </t>
   </si>
   <si>
@@ -1059,6 +1185,9 @@
     <t>www.reservix.net</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/reservix1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">RETEL Neuhausen AG </t>
   </si>
   <si>
@@ -1083,6 +1212,9 @@
     <t>+41 52 6724252</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/retel-neuhausen/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rhodia Acetow GmbH </t>
   </si>
   <si>
@@ -1101,6 +1233,9 @@
     <t>+49 761 511-3630</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Rhodia%20Acetow%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">sanawork GmbH Dr. Ursula Kramer </t>
   </si>
   <si>
@@ -1125,6 +1260,9 @@
     <t>+49 761 151548-2</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=sanawork%20GmbH%20Dr.%20Ursula%20Kramer%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scheer GmbH </t>
   </si>
   <si>
@@ -1146,6 +1284,9 @@
     <t>www.scheer-group.com/karriere/stellen</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/scheer-group/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schmolck GmbH &amp; Co. KG </t>
   </si>
   <si>
@@ -1164,6 +1305,9 @@
     <t>07641/4602-227</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/schmolck/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stackforce GmbH </t>
   </si>
   <si>
@@ -1185,6 +1329,9 @@
     <t>07634/69960 20</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Stackforce%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Step Computer- und Datentechnik GmbH </t>
   </si>
   <si>
@@ -1203,6 +1350,9 @@
     <t>+49 7621 4057-64</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/step-computer-und-datentechnik2/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stiegeler IT-Systemhaus GmbH &amp; Co. KG </t>
   </si>
   <si>
@@ -1221,6 +1371,9 @@
     <t>+49 7673 88899-20</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Stiegeler%20IT-Systemhaus%20GmbH%20&amp;%20Co.%20KG%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Streck Transportgesellschaft mbH </t>
   </si>
   <si>
@@ -1239,6 +1392,9 @@
     <t>+49 761 1305-246</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Streck%20Transportgesellschaft%20mbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Syngenta Crop Protection AG </t>
   </si>
   <si>
@@ -1257,6 +1413,9 @@
     <t>+41 61 323 54 18</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/syngenta/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">TecAlliance GmbH </t>
   </si>
   <si>
@@ -1278,6 +1437,9 @@
     <t>+49 7934 99299-525</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/tecalliance/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Testo industrial services GmbH </t>
   </si>
   <si>
@@ -1296,6 +1458,9 @@
     <t>+49 7661 90901 8074</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/testo-industrial-services2/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trend SWM EDV-Beratung GmbH &amp; Co. KG </t>
   </si>
   <si>
@@ -1317,6 +1482,9 @@
     <t>+49 761 88880-42</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Trend%20SWM%20EDV-Beratung%20GmbH%20&amp;%20Co.%20KG%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trivadis AG </t>
   </si>
   <si>
@@ -1335,6 +1503,9 @@
     <t>+41-58-459 50 65</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/trivadis1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitäts-Herzzentrum Freiburg-Bad Krozing </t>
   </si>
   <si>
@@ -1374,6 +1545,9 @@
     <t>+49 7621 702 3083</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Vitra%20HR%20Services%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Würth Elektronik GmbH &amp; Co. KG Standort Schopfheim </t>
   </si>
   <si>
@@ -1416,6 +1590,9 @@
     <t>+49 761 2964-444</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/z-laser/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">A. Raymond GmbH &amp; Co. KG </t>
   </si>
   <si>
@@ -1434,6 +1611,9 @@
     <t>+49 7621 174-2525</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/a-raymond/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coresystems AG </t>
   </si>
   <si>
@@ -1455,6 +1635,9 @@
     <t>+41 56 500 22 25</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/coresystems2/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fraunhofer-Institut für Physikalische Messtechnik IPM </t>
   </si>
   <si>
@@ -1497,6 +1680,9 @@
     <t>+41 61 316 63 52</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/actemium-schweiz/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">axxelia GmbH &amp; Co. KG </t>
   </si>
   <si>
@@ -1515,6 +1701,9 @@
     <t>+49 761 205514-05</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/axxelia/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Befine Solutions AG </t>
   </si>
   <si>
@@ -1533,6 +1722,9 @@
     <t>+49 761 38913-120</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/befine-solutions1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canoo  Engineering AG </t>
   </si>
   <si>
@@ -1551,6 +1743,9 @@
     <t>+41 61 228 94 44</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/canoo-engineering/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">coresystems Deutschland GmbH </t>
   </si>
   <si>
@@ -1563,6 +1758,9 @@
     <t>www.coresuite.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=coresystems%20Deutschland%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Endress + Hauser InfoServe GmbH + Co. KG </t>
   </si>
   <si>
@@ -1581,6 +1779,9 @@
     <t>+49 7621 975-835</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/endresshauser1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eschbach GmbH </t>
   </si>
   <si>
@@ -1602,6 +1803,9 @@
     <t>+49 7761 559 59-16</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/dr-eschbach-executive-advisory/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Europa-Park Freizeit- und Familienpark Mack K </t>
   </si>
   <si>
@@ -1620,6 +1824,9 @@
     <t>+49 7822 77-15420</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Europa-Park%20Freizeit-%20und%20Familienpark%20Mack%20K%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">FREICON AG Freiburger  IT-Consulting </t>
   </si>
   <si>
@@ -1632,6 +1839,9 @@
     <t>www.freicon.de</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=FREICON%20AG%20Freiburger%20%20IT-Consulting%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">FreiNet Gesellschaft für Informationsdienste </t>
   </si>
   <si>
@@ -1674,6 +1884,9 @@
     <t>+49 7761 55900-0</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=GEIGER%20TEXTIL%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Glatt GmbH Process Technology </t>
   </si>
   <si>
@@ -1692,6 +1905,9 @@
     <t>+49 7621 664-301</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Glatt%20GmbH%20Process%20Technology%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">grandcentrix GmbH </t>
   </si>
   <si>
@@ -1707,6 +1923,9 @@
     <t>www.grandcentrix.net/jobs</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/grandcentrix/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hans Adler OHG </t>
   </si>
   <si>
@@ -1725,6 +1944,9 @@
     <t>+49 7703 832-34</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/hans-adler/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUMMEL AG </t>
   </si>
   <si>
@@ -1740,6 +1962,9 @@
     <t>http://www.hummel.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/hummel/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">iRIX Software Engineering AG </t>
   </si>
   <si>
@@ -1761,6 +1986,9 @@
     <t>+41 61 3679332</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/irix-software-engineering/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">KARL STORZ GmbH &amp; Co. KG Endoskop Produktions GmbH </t>
   </si>
   <si>
@@ -1779,6 +2007,9 @@
     <t>+49 7461 708-548</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=KARL%20STORZ%20GmbH%20&amp;%20Co.%20KG%20Endoskop%20Produktions%20GmbH%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">KumaVision AG </t>
   </si>
   <si>
@@ -1797,6 +2028,9 @@
     <t>http://www.kumavision.de</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/kumavision/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Landratsamt Breisgau-Hochschwarzwald </t>
   </si>
   <si>
@@ -1812,6 +2046,9 @@
     <t>+49 761 21871312</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Landratsamt%20Breisgau-Hochschwarzwald%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manor AG </t>
   </si>
   <si>
@@ -1830,6 +2067,9 @@
     <t>+41 61 686-1177</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/manor/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medien-Akademie Augsburg </t>
   </si>
   <si>
@@ -1845,6 +2085,9 @@
     <t>http://www.medienakademie-augsburg.de</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/search#/?q=Medien-Akademie%20Augsburg%20&amp;country=COUNTRY_DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">MSC Technologies Systems GmbH </t>
   </si>
   <si>
@@ -1863,6 +2106,9 @@
     <t>+49 761 8819-620</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/msc-vertriebs1/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Northrop Grumman LITEF GmbH </t>
   </si>
   <si>
@@ -1881,6 +2127,9 @@
     <t>+49 761 4901-260</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/northrop-grumman-litef/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Printcom GmbH </t>
   </si>
   <si>
@@ -1890,12 +2139,15 @@
     <t>Herr Felix Leimbach</t>
   </si>
   <si>
-    <t>f.leimbach@printcom-gmbh.de</t>
+    <t>nirenberg@arcor.de</t>
   </si>
   <si>
     <t>+49 7621 94083-47</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/printcom3/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">regioDATA GmbH </t>
   </si>
   <si>
@@ -1917,6 +2169,9 @@
     <t>+49 7621 91943-0</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/regiodata-nord/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">RIB Cosinus GmbH </t>
   </si>
   <si>
@@ -1935,6 +2190,9 @@
     <t>+49 761 51004-826</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/rib-cosinus/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">SensoPart Industriesensorik GmbH </t>
   </si>
   <si>
@@ -1959,6 +2217,9 @@
     <t>07665 947669-827</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/sensopart-industriesensorik/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spar mit! Reisen </t>
   </si>
   <si>
@@ -1974,6 +2235,9 @@
     <t>http://www.spar-mit.com</t>
   </si>
   <si>
+    <t>https://www.kununu.com/ch/spar-mit-reisen-schweiz/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sto SE &amp; Co. KGaA </t>
   </si>
   <si>
@@ -1992,6 +2256,9 @@
     <t>+49 7744 57-1700</t>
   </si>
   <si>
+    <t>https://www.kununu.com/de/sto-se-aa/kommentare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitätsklinikum Freiburg Klinikrechenzentrum </t>
   </si>
   <si>
@@ -2055,7 +2322,7 @@
     <t>+49 7621 966 743</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>https://www.kununu.com/de/work-in-progress-textilhandels/kommentare</t>
   </si>
 </sst>
 </file>
@@ -2451,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,7 +2730,7 @@
     <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2493,62 +2760,62 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>678</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,2925 +2844,2981 @@
         <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>292</v>
+        <v>327</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>11</v>
+      <c r="J72" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>11</v>
+      <c r="J73" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="75" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>539</v>
+        <v>609</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>540</v>
+        <v>610</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>551</v>
+        <v>622</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>552</v>
+        <v>623</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>553</v>
+        <v>624</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>557</v>
+        <v>629</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>558</v>
+        <v>630</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>563</v>
+        <v>636</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>566</v>
+        <v>639</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>582</v>
+        <v>658</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>584</v>
+        <v>660</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>585</v>
+        <v>661</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>595</v>
+        <v>673</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>603</v>
+        <v>683</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>604</v>
+        <v>684</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>605</v>
+        <v>685</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>606</v>
+        <v>686</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>607</v>
+        <v>687</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>616</v>
+        <v>698</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>617</v>
+        <v>699</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>619</v>
+        <v>701</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>623</v>
+        <v>706</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>624</v>
+        <v>707</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>628</v>
+        <v>712</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>629</v>
+        <v>713</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>630</v>
+        <v>714</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>635</v>
+        <v>720</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>637</v>
+        <v>722</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>639</v>
+        <v>725</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>643</v>
+        <v>729</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>644</v>
+        <v>730</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>645</v>
+        <v>731</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>646</v>
+        <v>733</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>648</v>
+        <v>735</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>649</v>
+        <v>736</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>651</v>
+        <v>739</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>652</v>
+        <v>740</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>653</v>
+        <v>741</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>654</v>
+        <v>742</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>655</v>
+        <v>743</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>656</v>
+        <v>744</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>657</v>
+        <v>746</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>658</v>
+        <v>747</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>660</v>
+        <v>749</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>661</v>
+        <v>750</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>664</v>
+        <v>753</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>665</v>
+        <v>754</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>666</v>
+        <v>755</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>667</v>
+        <v>756</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>668</v>
+        <v>757</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>671</v>
+        <v>760</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="G6" r:id="rId7"/>
-    <hyperlink ref="D7" r:id="rId8"/>
-    <hyperlink ref="G7" r:id="rId9"/>
-    <hyperlink ref="D8" r:id="rId10"/>
-    <hyperlink ref="G8" r:id="rId11"/>
-    <hyperlink ref="D9" r:id="rId12"/>
-    <hyperlink ref="G9" r:id="rId13"/>
-    <hyperlink ref="G10" r:id="rId14"/>
-    <hyperlink ref="G11" r:id="rId15"/>
-    <hyperlink ref="G12" r:id="rId16"/>
-    <hyperlink ref="D13" r:id="rId17"/>
-    <hyperlink ref="G13" r:id="rId18"/>
-    <hyperlink ref="G14" r:id="rId19"/>
-    <hyperlink ref="G15" r:id="rId20"/>
-    <hyperlink ref="D16" r:id="rId21"/>
-    <hyperlink ref="G17" r:id="rId22"/>
-    <hyperlink ref="D18" r:id="rId23"/>
-    <hyperlink ref="G18" r:id="rId24"/>
-    <hyperlink ref="G19" r:id="rId25"/>
-    <hyperlink ref="G20" r:id="rId26"/>
-    <hyperlink ref="G21" r:id="rId27"/>
-    <hyperlink ref="G22" r:id="rId28"/>
-    <hyperlink ref="D23" r:id="rId29"/>
-    <hyperlink ref="G23" r:id="rId30"/>
-    <hyperlink ref="G24" r:id="rId31"/>
-    <hyperlink ref="D25" r:id="rId32"/>
-    <hyperlink ref="G25" r:id="rId33"/>
-    <hyperlink ref="G26" r:id="rId34"/>
-    <hyperlink ref="G27" r:id="rId35"/>
-    <hyperlink ref="C28" r:id="rId36"/>
-    <hyperlink ref="G28" r:id="rId37"/>
-    <hyperlink ref="G29" r:id="rId38"/>
-    <hyperlink ref="D30" r:id="rId39"/>
-    <hyperlink ref="G30" r:id="rId40"/>
-    <hyperlink ref="D31" r:id="rId41"/>
-    <hyperlink ref="G32" r:id="rId42"/>
-    <hyperlink ref="G33" r:id="rId43"/>
-    <hyperlink ref="G34" r:id="rId44"/>
-    <hyperlink ref="G35" r:id="rId45"/>
-    <hyperlink ref="D36" r:id="rId46"/>
-    <hyperlink ref="G36" r:id="rId47"/>
-    <hyperlink ref="G37" r:id="rId48"/>
-    <hyperlink ref="G38" r:id="rId49"/>
-    <hyperlink ref="G39" r:id="rId50"/>
-    <hyperlink ref="G40" r:id="rId51"/>
-    <hyperlink ref="G41" r:id="rId52"/>
-    <hyperlink ref="G42" r:id="rId53"/>
-    <hyperlink ref="G43" r:id="rId54"/>
-    <hyperlink ref="G44" r:id="rId55"/>
-    <hyperlink ref="D45" r:id="rId56"/>
-    <hyperlink ref="G45" r:id="rId57"/>
-    <hyperlink ref="G46" r:id="rId58"/>
-    <hyperlink ref="G47" r:id="rId59"/>
-    <hyperlink ref="G48" r:id="rId60"/>
-    <hyperlink ref="D49" r:id="rId61"/>
-    <hyperlink ref="G49" r:id="rId62"/>
-    <hyperlink ref="G50" r:id="rId63"/>
-    <hyperlink ref="G51" r:id="rId64"/>
-    <hyperlink ref="D52" r:id="rId65"/>
-    <hyperlink ref="G52" r:id="rId66"/>
-    <hyperlink ref="G53" r:id="rId67"/>
-    <hyperlink ref="D54" r:id="rId68"/>
-    <hyperlink ref="G54" r:id="rId69"/>
-    <hyperlink ref="G55" r:id="rId70"/>
-    <hyperlink ref="D56" r:id="rId71"/>
-    <hyperlink ref="G56" r:id="rId72"/>
-    <hyperlink ref="D57" r:id="rId73"/>
-    <hyperlink ref="G57" r:id="rId74"/>
-    <hyperlink ref="G58" r:id="rId75"/>
-    <hyperlink ref="D59" r:id="rId76"/>
-    <hyperlink ref="G59" r:id="rId77"/>
-    <hyperlink ref="G60" r:id="rId78"/>
-    <hyperlink ref="G61" r:id="rId79"/>
-    <hyperlink ref="G62" r:id="rId80"/>
-    <hyperlink ref="G63" r:id="rId81"/>
-    <hyperlink ref="D64" r:id="rId82"/>
-    <hyperlink ref="G64" r:id="rId83"/>
-    <hyperlink ref="G65" r:id="rId84"/>
-    <hyperlink ref="C66" r:id="rId85"/>
-    <hyperlink ref="G66" r:id="rId86"/>
-    <hyperlink ref="G67" r:id="rId87"/>
-    <hyperlink ref="D68" r:id="rId88"/>
-    <hyperlink ref="G68" r:id="rId89"/>
-    <hyperlink ref="G69" r:id="rId90"/>
-    <hyperlink ref="D70" r:id="rId91"/>
-    <hyperlink ref="G70" r:id="rId92"/>
-    <hyperlink ref="G71" r:id="rId93"/>
-    <hyperlink ref="G72" r:id="rId94"/>
-    <hyperlink ref="D73" r:id="rId95"/>
-    <hyperlink ref="G73" r:id="rId96"/>
-    <hyperlink ref="G74" r:id="rId97"/>
-    <hyperlink ref="D75" r:id="rId98"/>
-    <hyperlink ref="G75" r:id="rId99"/>
-    <hyperlink ref="G76" r:id="rId100"/>
-    <hyperlink ref="G77" r:id="rId101"/>
-    <hyperlink ref="G78" r:id="rId102"/>
-    <hyperlink ref="D79" r:id="rId103"/>
-    <hyperlink ref="G79" r:id="rId104"/>
-    <hyperlink ref="G80" r:id="rId105"/>
-    <hyperlink ref="D81" r:id="rId106"/>
-    <hyperlink ref="G81" r:id="rId107"/>
-    <hyperlink ref="G82" r:id="rId108"/>
-    <hyperlink ref="G83" r:id="rId109"/>
-    <hyperlink ref="G84" r:id="rId110"/>
-    <hyperlink ref="D85" r:id="rId111"/>
-    <hyperlink ref="G85" r:id="rId112"/>
-    <hyperlink ref="G86" r:id="rId113"/>
-    <hyperlink ref="G87" r:id="rId114"/>
-    <hyperlink ref="G88" r:id="rId115"/>
-    <hyperlink ref="G89" r:id="rId116"/>
-    <hyperlink ref="G90" r:id="rId117"/>
-    <hyperlink ref="G91" r:id="rId118"/>
-    <hyperlink ref="G92" r:id="rId119"/>
-    <hyperlink ref="G94" r:id="rId120"/>
-    <hyperlink ref="G95" r:id="rId121"/>
-    <hyperlink ref="G96" r:id="rId122"/>
-    <hyperlink ref="G97" r:id="rId123"/>
-    <hyperlink ref="G99" r:id="rId124"/>
-    <hyperlink ref="G100" r:id="rId125"/>
-    <hyperlink ref="D101" r:id="rId126"/>
-    <hyperlink ref="G101" r:id="rId127"/>
-    <hyperlink ref="G102" r:id="rId128"/>
-    <hyperlink ref="G103" r:id="rId129"/>
-    <hyperlink ref="D104" r:id="rId130"/>
-    <hyperlink ref="G104" r:id="rId131"/>
-    <hyperlink ref="G105" r:id="rId132"/>
-    <hyperlink ref="G106" r:id="rId133"/>
+    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="G4" r:id="rId6"/>
+    <hyperlink ref="J4" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="J5" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="G6" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="G7" r:id="rId13"/>
+    <hyperlink ref="J7" r:id="rId14"/>
+    <hyperlink ref="D8" r:id="rId15"/>
+    <hyperlink ref="G8" r:id="rId16"/>
+    <hyperlink ref="J8" r:id="rId17"/>
+    <hyperlink ref="D9" r:id="rId18"/>
+    <hyperlink ref="G9" r:id="rId19"/>
+    <hyperlink ref="J9" r:id="rId20"/>
+    <hyperlink ref="G10" r:id="rId21"/>
+    <hyperlink ref="J10" r:id="rId22"/>
+    <hyperlink ref="G11" r:id="rId23"/>
+    <hyperlink ref="J11" r:id="rId24"/>
+    <hyperlink ref="G12" r:id="rId25"/>
+    <hyperlink ref="J12" r:id="rId26" location="/?q=Bucher%20Hydraulics%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="D13" r:id="rId27"/>
+    <hyperlink ref="G13" r:id="rId28"/>
+    <hyperlink ref="J13" r:id="rId29"/>
+    <hyperlink ref="G14" r:id="rId30"/>
+    <hyperlink ref="G15" r:id="rId31"/>
+    <hyperlink ref="J15" r:id="rId32"/>
+    <hyperlink ref="D16" r:id="rId33"/>
+    <hyperlink ref="J16" r:id="rId34" location="/?q=dbi%20Services%20SA%20&amp;country=COUNTRY_CH"/>
+    <hyperlink ref="G17" r:id="rId35"/>
+    <hyperlink ref="J17" r:id="rId36"/>
+    <hyperlink ref="D18" r:id="rId37"/>
+    <hyperlink ref="G18" r:id="rId38"/>
+    <hyperlink ref="J18" r:id="rId39" location="/?q=DigitalPatrioten%20AG%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G19" r:id="rId40"/>
+    <hyperlink ref="J19" r:id="rId41"/>
+    <hyperlink ref="G20" r:id="rId42"/>
+    <hyperlink ref="J20" r:id="rId43"/>
+    <hyperlink ref="G21" r:id="rId44"/>
+    <hyperlink ref="J21" r:id="rId45"/>
+    <hyperlink ref="G22" r:id="rId46"/>
+    <hyperlink ref="D23" r:id="rId47"/>
+    <hyperlink ref="G23" r:id="rId48"/>
+    <hyperlink ref="G24" r:id="rId49"/>
+    <hyperlink ref="J24" r:id="rId50"/>
+    <hyperlink ref="D25" r:id="rId51"/>
+    <hyperlink ref="G25" r:id="rId52"/>
+    <hyperlink ref="J25" r:id="rId53"/>
+    <hyperlink ref="G26" r:id="rId54"/>
+    <hyperlink ref="J26" r:id="rId55"/>
+    <hyperlink ref="G27" r:id="rId56"/>
+    <hyperlink ref="J27" r:id="rId57" location="/?q=Hecht%20Contactlinsen%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="C28" r:id="rId58"/>
+    <hyperlink ref="G28" r:id="rId59"/>
+    <hyperlink ref="J28" r:id="rId60"/>
+    <hyperlink ref="G29" r:id="rId61"/>
+    <hyperlink ref="J29" r:id="rId62"/>
+    <hyperlink ref="D30" r:id="rId63"/>
+    <hyperlink ref="G30" r:id="rId64"/>
+    <hyperlink ref="D31" r:id="rId65"/>
+    <hyperlink ref="J31" r:id="rId66" location="/?q=hochrheinNET%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G32" r:id="rId67"/>
+    <hyperlink ref="J32" r:id="rId68"/>
+    <hyperlink ref="G33" r:id="rId69"/>
+    <hyperlink ref="J33" r:id="rId70"/>
+    <hyperlink ref="G34" r:id="rId71"/>
+    <hyperlink ref="J34" r:id="rId72"/>
+    <hyperlink ref="G35" r:id="rId73"/>
+    <hyperlink ref="J35" r:id="rId74"/>
+    <hyperlink ref="D36" r:id="rId75"/>
+    <hyperlink ref="G36" r:id="rId76"/>
+    <hyperlink ref="J36" r:id="rId77" location="/?q=Kommunale%20Informationsverarbeitung%20Baden-Fran%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G37" r:id="rId78"/>
+    <hyperlink ref="G38" r:id="rId79"/>
+    <hyperlink ref="J38" r:id="rId80"/>
+    <hyperlink ref="G39" r:id="rId81"/>
+    <hyperlink ref="J39" r:id="rId82" location="/?q=Leitwerk%20AG%20Niederlassung%20Freiburg%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G40" r:id="rId83"/>
+    <hyperlink ref="J40" r:id="rId84"/>
+    <hyperlink ref="G41" r:id="rId85"/>
+    <hyperlink ref="J41" r:id="rId86"/>
+    <hyperlink ref="G42" r:id="rId87"/>
+    <hyperlink ref="J42" r:id="rId88" location="/?q=Magnolia%20International%20AG%20&amp;country=COUNTRY_CH"/>
+    <hyperlink ref="G43" r:id="rId89"/>
+    <hyperlink ref="J43" r:id="rId90"/>
+    <hyperlink ref="G44" r:id="rId91"/>
+    <hyperlink ref="J44" r:id="rId92"/>
+    <hyperlink ref="D45" r:id="rId93"/>
+    <hyperlink ref="G45" r:id="rId94"/>
+    <hyperlink ref="J45" r:id="rId95" location="/?q=MIMOT%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G46" r:id="rId96"/>
+    <hyperlink ref="J46" r:id="rId97" location="/?q=MothersonSumi%20INfotekk%20and%20Design%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G47" r:id="rId98"/>
+    <hyperlink ref="G48" r:id="rId99"/>
+    <hyperlink ref="J48" r:id="rId100"/>
+    <hyperlink ref="D49" r:id="rId101"/>
+    <hyperlink ref="G49" r:id="rId102"/>
+    <hyperlink ref="J49" r:id="rId103"/>
+    <hyperlink ref="G50" r:id="rId104"/>
+    <hyperlink ref="J50" r:id="rId105"/>
+    <hyperlink ref="G51" r:id="rId106"/>
+    <hyperlink ref="J51" r:id="rId107"/>
+    <hyperlink ref="D52" r:id="rId108"/>
+    <hyperlink ref="G52" r:id="rId109"/>
+    <hyperlink ref="J52" r:id="rId110"/>
+    <hyperlink ref="G53" r:id="rId111"/>
+    <hyperlink ref="J53" r:id="rId112"/>
+    <hyperlink ref="D54" r:id="rId113"/>
+    <hyperlink ref="G54" r:id="rId114"/>
+    <hyperlink ref="J54" r:id="rId115"/>
+    <hyperlink ref="G55" r:id="rId116"/>
+    <hyperlink ref="J55" r:id="rId117" location="/?q=Rhodia%20Acetow%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="D56" r:id="rId118"/>
+    <hyperlink ref="G56" r:id="rId119"/>
+    <hyperlink ref="J56" r:id="rId120" location="/?q=sanawork%20GmbH%20Dr.%20Ursula%20Kramer%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="D57" r:id="rId121"/>
+    <hyperlink ref="G57" r:id="rId122"/>
+    <hyperlink ref="J57" r:id="rId123"/>
+    <hyperlink ref="G58" r:id="rId124"/>
+    <hyperlink ref="J58" r:id="rId125"/>
+    <hyperlink ref="D59" r:id="rId126"/>
+    <hyperlink ref="G59" r:id="rId127"/>
+    <hyperlink ref="J59" r:id="rId128" location="/?q=Stackforce%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G60" r:id="rId129"/>
+    <hyperlink ref="J60" r:id="rId130"/>
+    <hyperlink ref="G61" r:id="rId131"/>
+    <hyperlink ref="J61" r:id="rId132" location="/?q=Stiegeler%20IT-Systemhaus%20GmbH%20&amp;%20Co.%20KG%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G62" r:id="rId133"/>
+    <hyperlink ref="J62" r:id="rId134" location="/?q=Streck%20Transportgesellschaft%20mbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G63" r:id="rId135"/>
+    <hyperlink ref="J63" r:id="rId136"/>
+    <hyperlink ref="D64" r:id="rId137"/>
+    <hyperlink ref="G64" r:id="rId138"/>
+    <hyperlink ref="J64" r:id="rId139"/>
+    <hyperlink ref="G65" r:id="rId140"/>
+    <hyperlink ref="J65" r:id="rId141"/>
+    <hyperlink ref="C66" r:id="rId142"/>
+    <hyperlink ref="G66" r:id="rId143"/>
+    <hyperlink ref="J66" r:id="rId144" location="/?q=Trend%20SWM%20EDV-Beratung%20GmbH%20&amp;%20Co.%20KG%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G67" r:id="rId145"/>
+    <hyperlink ref="J67" r:id="rId146"/>
+    <hyperlink ref="D68" r:id="rId147"/>
+    <hyperlink ref="G68" r:id="rId148"/>
+    <hyperlink ref="G69" r:id="rId149"/>
+    <hyperlink ref="J69" r:id="rId150" location="/?q=Vitra%20HR%20Services%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="D70" r:id="rId151"/>
+    <hyperlink ref="G70" r:id="rId152"/>
+    <hyperlink ref="G71" r:id="rId153"/>
+    <hyperlink ref="J71" r:id="rId154"/>
+    <hyperlink ref="G72" r:id="rId155"/>
+    <hyperlink ref="J72" r:id="rId156"/>
+    <hyperlink ref="D73" r:id="rId157"/>
+    <hyperlink ref="G73" r:id="rId158"/>
+    <hyperlink ref="J73" r:id="rId159"/>
+    <hyperlink ref="G74" r:id="rId160"/>
+    <hyperlink ref="D75" r:id="rId161"/>
+    <hyperlink ref="G75" r:id="rId162"/>
+    <hyperlink ref="J75" r:id="rId163"/>
+    <hyperlink ref="G76" r:id="rId164"/>
+    <hyperlink ref="J76" r:id="rId165"/>
+    <hyperlink ref="G77" r:id="rId166"/>
+    <hyperlink ref="J77" r:id="rId167"/>
+    <hyperlink ref="G78" r:id="rId168"/>
+    <hyperlink ref="J78" r:id="rId169"/>
+    <hyperlink ref="D79" r:id="rId170"/>
+    <hyperlink ref="G79" r:id="rId171"/>
+    <hyperlink ref="J79" r:id="rId172" location="/?q=coresystems%20Deutschland%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G80" r:id="rId173"/>
+    <hyperlink ref="J80" r:id="rId174"/>
+    <hyperlink ref="D81" r:id="rId175"/>
+    <hyperlink ref="G81" r:id="rId176"/>
+    <hyperlink ref="J81" r:id="rId177"/>
+    <hyperlink ref="G82" r:id="rId178"/>
+    <hyperlink ref="J82" r:id="rId179" location="/?q=Europa-Park%20Freizeit-%20und%20Familienpark%20Mack%20K%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G83" r:id="rId180"/>
+    <hyperlink ref="J83" r:id="rId181" location="/?q=FREICON%20AG%20Freiburger%20%20IT-Consulting%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G84" r:id="rId182"/>
+    <hyperlink ref="D85" r:id="rId183"/>
+    <hyperlink ref="G85" r:id="rId184"/>
+    <hyperlink ref="J85" r:id="rId185" location="/?q=GEIGER%20TEXTIL%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G86" r:id="rId186"/>
+    <hyperlink ref="J86" r:id="rId187" location="/?q=Glatt%20GmbH%20Process%20Technology%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G87" r:id="rId188"/>
+    <hyperlink ref="J87" r:id="rId189"/>
+    <hyperlink ref="G88" r:id="rId190"/>
+    <hyperlink ref="J88" r:id="rId191"/>
+    <hyperlink ref="G89" r:id="rId192"/>
+    <hyperlink ref="J89" r:id="rId193"/>
+    <hyperlink ref="G90" r:id="rId194"/>
+    <hyperlink ref="J90" r:id="rId195"/>
+    <hyperlink ref="G91" r:id="rId196"/>
+    <hyperlink ref="J91" r:id="rId197" location="/?q=KARL%20STORZ%20GmbH%20&amp;%20Co.%20KG%20Endoskop%20Produktions%20GmbH%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G92" r:id="rId198"/>
+    <hyperlink ref="J92" r:id="rId199"/>
+    <hyperlink ref="J93" r:id="rId200" location="/?q=Landratsamt%20Breisgau-Hochschwarzwald%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G94" r:id="rId201"/>
+    <hyperlink ref="J94" r:id="rId202"/>
+    <hyperlink ref="G95" r:id="rId203"/>
+    <hyperlink ref="J95" r:id="rId204" location="/?q=Medien-Akademie%20Augsburg%20&amp;country=COUNTRY_DE"/>
+    <hyperlink ref="G96" r:id="rId205"/>
+    <hyperlink ref="J96" r:id="rId206"/>
+    <hyperlink ref="G97" r:id="rId207"/>
+    <hyperlink ref="J97" r:id="rId208"/>
+    <hyperlink ref="J98" r:id="rId209"/>
+    <hyperlink ref="G99" r:id="rId210"/>
+    <hyperlink ref="J99" r:id="rId211"/>
+    <hyperlink ref="G100" r:id="rId212"/>
+    <hyperlink ref="J100" r:id="rId213"/>
+    <hyperlink ref="D101" r:id="rId214"/>
+    <hyperlink ref="G101" r:id="rId215"/>
+    <hyperlink ref="J101" r:id="rId216"/>
+    <hyperlink ref="G102" r:id="rId217"/>
+    <hyperlink ref="J102" r:id="rId218"/>
+    <hyperlink ref="G103" r:id="rId219"/>
+    <hyperlink ref="J103" r:id="rId220"/>
+    <hyperlink ref="D104" r:id="rId221"/>
+    <hyperlink ref="G104" r:id="rId222"/>
+    <hyperlink ref="G105" r:id="rId223"/>
+    <hyperlink ref="G106" r:id="rId224"/>
+    <hyperlink ref="J106" r:id="rId225"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
